--- a/Maybeee.xlsx
+++ b/Maybeee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Desktop/StateClean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0935C6-E974-884A-8A46-96034820FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BBE914-9B3A-44F4-8675-BF84AA289A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="1021">
   <si>
     <t>ES_Country</t>
   </si>
@@ -3074,6 +3074,15 @@
   </si>
   <si>
     <t>19.983333,-102.283333</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Idaho</t>
   </si>
 </sst>
 </file>
@@ -3439,11 +3448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3512,7 +3523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3581,7 +3592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3604,7 +3615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3696,7 +3707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3719,7 +3730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3742,7 +3753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3811,7 +3822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3834,7 +3845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3857,7 +3868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3880,7 +3891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3903,7 +3914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3926,10 +3937,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1018</v>
+      </c>
       <c r="C22" t="s">
         <v>67</v>
       </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1018</v>
+      </c>
       <c r="F22" t="s">
         <v>67</v>
       </c>
@@ -3937,7 +3960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3960,7 +3983,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3983,7 +4006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4006,7 +4029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4029,7 +4052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4052,7 +4075,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4075,7 +4098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -4086,7 +4109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4109,10 +4132,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1019</v>
+      </c>
       <c r="C31" t="s">
         <v>88</v>
       </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1019</v>
+      </c>
       <c r="F31" t="s">
         <v>88</v>
       </c>
@@ -4120,7 +4155,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4143,7 +4178,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4166,7 +4201,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4189,7 +4224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4212,10 +4247,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1020</v>
+      </c>
       <c r="C36" t="s">
         <v>100</v>
       </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1020</v>
+      </c>
       <c r="F36" t="s">
         <v>100</v>
       </c>
@@ -4223,7 +4270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4246,7 +4293,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4269,7 +4316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>107</v>
       </c>
@@ -4280,7 +4327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>109</v>
       </c>
@@ -4291,7 +4338,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -4314,7 +4361,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4337,7 +4384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4360,7 +4407,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>117</v>
       </c>
@@ -4371,7 +4418,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>119</v>
       </c>
@@ -4382,7 +4429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -4405,7 +4452,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -4428,7 +4475,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4451,7 +4498,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4474,7 +4521,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -4497,7 +4544,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -4520,7 +4567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4543,7 +4590,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4566,7 +4613,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4589,7 +4636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -4612,7 +4659,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4635,7 +4682,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4658,7 +4705,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -4681,7 +4728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4751,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -4727,7 +4774,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -4750,7 +4797,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4773,7 +4820,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4796,7 +4843,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>170</v>
       </c>
@@ -4807,7 +4854,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -4830,7 +4877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -4853,7 +4900,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -4876,7 +4923,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4899,7 +4946,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4922,7 +4969,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4945,7 +4992,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -4968,7 +5015,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>194</v>
       </c>
@@ -4979,7 +5026,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -5002,7 +5049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -5025,7 +5072,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -5048,7 +5095,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -5071,7 +5118,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -5094,7 +5141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>211</v>
       </c>
@@ -5105,7 +5152,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5175,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -5151,7 +5198,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -5174,7 +5221,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5244,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5267,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5290,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -5266,7 +5313,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5336,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5312,7 +5359,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5382,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>236</v>
       </c>
@@ -5346,7 +5393,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5369,7 +5416,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5392,7 +5439,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -5415,7 +5462,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5438,7 +5485,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5461,7 +5508,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5484,7 +5531,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -5507,7 +5554,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5530,7 +5577,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>256</v>
       </c>
@@ -5541,7 +5588,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -5564,7 +5611,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5634,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>262</v>
       </c>
@@ -5598,7 +5645,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -5621,7 +5668,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -5644,7 +5691,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5667,7 +5714,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5690,7 +5737,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5713,7 +5760,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5736,7 +5783,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5759,7 +5806,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5782,7 +5829,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -5805,7 +5852,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>179</v>
       </c>
@@ -5828,7 +5875,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>286</v>
       </c>
@@ -5839,7 +5886,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -5862,7 +5909,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -5885,7 +5932,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -5908,7 +5955,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5931,7 +5978,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -5954,7 +6001,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -5977,7 +6024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -6000,7 +6047,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -6023,7 +6070,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -6046,7 +6093,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>305</v>
       </c>
@@ -6057,7 +6104,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -6080,7 +6127,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -6103,7 +6150,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6126,7 +6173,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6149,7 +6196,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -6172,7 +6219,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6195,7 +6242,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6218,7 +6265,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6241,7 +6288,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6264,7 +6311,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6287,7 +6334,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6310,7 +6357,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6333,7 +6380,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6356,7 +6403,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -6379,7 +6426,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6402,7 +6449,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6425,7 +6472,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -6448,7 +6495,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6471,7 +6518,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6494,7 +6541,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>347</v>
       </c>
@@ -6505,7 +6552,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6528,7 +6575,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -6551,7 +6598,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -6574,7 +6621,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -6597,7 +6644,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -6620,7 +6667,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -6643,7 +6690,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -6666,7 +6713,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -6689,7 +6736,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -6712,7 +6759,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>368</v>
       </c>
@@ -6723,7 +6770,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6746,7 +6793,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -6769,7 +6816,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>374</v>
       </c>
@@ -6780,7 +6827,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6850,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6826,7 +6873,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6849,7 +6896,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6872,7 +6919,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -6895,7 +6942,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -6918,7 +6965,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -6941,7 +6988,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -6964,7 +7011,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -6987,7 +7034,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -7010,7 +7057,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>398</v>
       </c>
@@ -7021,7 +7068,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>400</v>
       </c>
@@ -7032,7 +7079,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>402</v>
       </c>
@@ -7043,7 +7090,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -7066,7 +7113,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -7089,7 +7136,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>408</v>
       </c>
@@ -7100,7 +7147,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7123,7 +7170,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7193,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -7169,7 +7216,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -7192,7 +7239,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>418</v>
       </c>
@@ -7215,7 +7262,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -7238,7 +7285,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -7261,7 +7308,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>427</v>
       </c>
@@ -7284,7 +7331,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7307,7 +7354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>432</v>
       </c>
@@ -7330,7 +7377,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>436</v>
       </c>
@@ -7341,7 +7388,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>438</v>
       </c>
@@ -7352,7 +7399,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7375,7 +7422,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7398,7 +7445,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7421,7 +7468,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7444,7 +7491,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7467,7 +7514,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7490,7 +7537,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7513,7 +7560,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7536,7 +7583,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -7559,7 +7606,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -7582,7 +7629,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7605,7 +7652,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7628,7 +7675,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7651,7 +7698,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -7674,7 +7721,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>469</v>
       </c>
@@ -7697,7 +7744,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -7720,7 +7767,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -7743,7 +7790,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7763,7 +7810,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7786,7 +7833,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>481</v>
       </c>
@@ -7797,7 +7844,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>483</v>
       </c>
@@ -7808,7 +7855,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -7831,7 +7878,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>487</v>
       </c>
@@ -7842,7 +7889,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +7912,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7888,7 +7935,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>493</v>
       </c>
@@ -7911,7 +7958,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7981,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>501</v>
       </c>
@@ -7945,7 +7992,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -7968,7 +8015,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -7991,7 +8038,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -8014,7 +8061,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -8037,7 +8084,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8060,7 +8107,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8083,7 +8130,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8106,7 +8153,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8129,7 +8176,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>521</v>
       </c>
@@ -8140,7 +8187,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8163,7 +8210,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>525</v>
       </c>
@@ -8186,7 +8233,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>529</v>
       </c>
@@ -8197,7 +8244,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8220,7 +8267,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8243,7 +8290,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>493</v>
       </c>
@@ -8266,7 +8313,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>539</v>
       </c>
@@ -8277,7 +8324,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -8300,7 +8347,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -8323,7 +8370,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -8346,7 +8393,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>121</v>
       </c>
@@ -8369,7 +8416,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -8392,7 +8439,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -8415,7 +8462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -8438,7 +8485,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -8461,7 +8508,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -8484,7 +8531,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -8507,7 +8554,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -8530,7 +8577,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -8553,7 +8600,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -8576,7 +8623,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -8599,7 +8646,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -8622,7 +8669,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -8645,7 +8692,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -8668,7 +8715,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -8691,7 +8738,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -8714,7 +8761,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>121</v>
       </c>
@@ -8737,7 +8784,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>587</v>
       </c>
@@ -8760,7 +8807,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -8783,7 +8830,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -8806,7 +8853,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -8829,7 +8876,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>598</v>
       </c>
@@ -8852,7 +8899,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -8875,7 +8922,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -8898,7 +8945,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>606</v>
       </c>
@@ -8921,7 +8968,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -8944,7 +8991,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>613</v>
       </c>
@@ -8967,7 +9014,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -8990,7 +9037,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -9013,7 +9060,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -9036,7 +9083,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -9059,7 +9106,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>587</v>
       </c>
@@ -9082,7 +9129,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>121</v>
       </c>
@@ -9105,7 +9152,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -9128,7 +9175,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -9151,7 +9198,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -9174,7 +9221,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -9197,7 +9244,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>493</v>
       </c>
@@ -9220,7 +9267,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -9243,7 +9290,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -9266,7 +9313,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -9289,7 +9336,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>653</v>
       </c>
@@ -9300,7 +9347,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -9323,7 +9370,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -9346,7 +9393,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -9369,7 +9416,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -9392,7 +9439,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -9415,7 +9462,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -9438,7 +9485,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -9461,7 +9508,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -9484,7 +9531,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>671</v>
       </c>
@@ -9495,7 +9542,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -9518,7 +9565,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -9541,7 +9588,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>121</v>
       </c>
@@ -9564,7 +9611,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -9587,7 +9634,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>683</v>
       </c>
@@ -9598,7 +9645,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -9621,7 +9668,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -9644,7 +9691,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -9667,7 +9714,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -9690,7 +9737,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -9713,7 +9760,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -9736,7 +9783,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -9759,7 +9806,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -9782,7 +9829,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -9805,7 +9852,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -9828,7 +9875,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -9851,7 +9898,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>706</v>
       </c>
@@ -9862,7 +9909,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -9885,7 +9932,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -9908,7 +9955,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -9931,7 +9978,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -9954,7 +10001,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -9977,7 +10024,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>720</v>
       </c>
@@ -9988,7 +10035,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -10011,7 +10058,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -10034,7 +10081,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -10057,7 +10104,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -10080,7 +10127,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -10103,7 +10150,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>587</v>
       </c>
@@ -10126,7 +10173,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -10149,7 +10196,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>739</v>
       </c>
@@ -10172,7 +10219,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -10195,7 +10242,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -10218,7 +10265,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
         <v>749</v>
       </c>
@@ -10229,7 +10276,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -10252,7 +10299,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -10275,7 +10322,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -10298,7 +10345,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -10321,7 +10368,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -10344,7 +10391,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>613</v>
       </c>
@@ -10367,7 +10414,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -10390,7 +10437,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>767</v>
       </c>
@@ -10413,7 +10460,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -10436,7 +10483,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -10459,7 +10506,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -10482,7 +10529,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -10505,7 +10552,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -10528,7 +10575,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -10551,7 +10598,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -10574,7 +10621,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
         <v>785</v>
       </c>
@@ -10585,7 +10632,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -10608,7 +10655,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -10631,7 +10678,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -10654,7 +10701,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -10677,7 +10724,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -10700,7 +10747,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -10723,7 +10770,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -10746,7 +10793,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -10769,7 +10816,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -10792,7 +10839,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -10815,7 +10862,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>807</v>
       </c>
@@ -10838,7 +10885,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -10861,7 +10908,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -10884,7 +10931,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -10907,7 +10954,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>15</v>
       </c>
@@ -10930,7 +10977,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>15</v>
       </c>
@@ -10953,7 +11000,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
         <v>822</v>
       </c>
@@ -10964,7 +11011,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -10987,7 +11034,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>15</v>
       </c>
@@ -11010,7 +11057,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -11033,7 +11080,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -11056,7 +11103,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>832</v>
       </c>
@@ -11067,7 +11114,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -11090,7 +11137,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -11113,7 +11160,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -11136,7 +11183,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -11159,7 +11206,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>843</v>
       </c>
@@ -11170,7 +11217,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -11193,7 +11240,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -11216,7 +11263,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>15</v>
       </c>
@@ -11239,7 +11286,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -11262,7 +11309,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -11285,7 +11332,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>15</v>
       </c>
@@ -11308,7 +11355,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>859</v>
       </c>
@@ -11331,7 +11378,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>15</v>
       </c>
@@ -11354,7 +11401,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>864</v>
       </c>
@@ -11377,7 +11424,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11447,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -11423,7 +11470,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
         <v>873</v>
       </c>
@@ -11434,7 +11481,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>875</v>
       </c>
@@ -11445,7 +11492,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -11468,7 +11515,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -11491,7 +11538,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>493</v>
       </c>
@@ -11514,7 +11561,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>884</v>
       </c>
@@ -11537,7 +11584,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>7</v>
       </c>
@@ -11560,7 +11607,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>15</v>
       </c>
@@ -11583,7 +11630,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
         <v>891</v>
       </c>
@@ -11594,7 +11641,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -11617,7 +11664,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -11640,7 +11687,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>7</v>
       </c>
@@ -11663,7 +11710,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -11686,7 +11733,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -11709,7 +11756,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -11732,7 +11779,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
         <v>905</v>
       </c>
@@ -11743,7 +11790,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -11766,7 +11813,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -11789,7 +11836,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
         <v>912</v>
       </c>
@@ -11800,7 +11847,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -11823,7 +11870,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -11846,7 +11893,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -11869,7 +11916,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>920</v>
       </c>
@@ -11892,7 +11939,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -11915,7 +11962,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -11938,7 +11985,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -11961,7 +12008,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -11984,7 +12031,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>598</v>
       </c>
@@ -12007,7 +12054,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>15</v>
       </c>
@@ -12030,7 +12077,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -12053,7 +12100,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -12076,7 +12123,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -12099,7 +12146,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>15</v>
       </c>
@@ -12122,7 +12169,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C403" t="s">
         <v>947</v>
       </c>
@@ -12133,7 +12180,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -12156,7 +12203,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -12179,7 +12226,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>15</v>
       </c>
@@ -12202,7 +12249,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -12225,7 +12272,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -12248,7 +12295,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -12271,7 +12318,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -12294,7 +12341,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>15</v>
       </c>
@@ -12317,7 +12364,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>15</v>
       </c>
@@ -12340,7 +12387,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>121</v>
       </c>
@@ -12363,7 +12410,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -12386,7 +12433,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
         <v>973</v>
       </c>
@@ -12397,7 +12444,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -12420,7 +12467,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>613</v>
       </c>
@@ -12443,7 +12490,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -12466,7 +12513,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>15</v>
       </c>
@@ -12489,7 +12536,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -12512,7 +12559,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>15</v>
       </c>
@@ -12535,7 +12582,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -12558,7 +12605,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -12581,7 +12628,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -12604,7 +12651,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
         <v>1001</v>
       </c>
@@ -12615,7 +12662,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -12638,7 +12685,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C427" t="s">
         <v>1005</v>
       </c>
@@ -12649,7 +12696,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>867</v>
       </c>
@@ -12672,7 +12719,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>884</v>
       </c>
@@ -12695,7 +12742,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>884</v>
       </c>
@@ -12718,7 +12765,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>15</v>
       </c>
@@ -12741,7 +12788,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>15</v>
       </c>
@@ -12764,7 +12811,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>15</v>
       </c>

--- a/Maybeee.xlsx
+++ b/Maybeee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Desktop/StateClean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/MetadataProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0935C6-E974-884A-8A46-96034820FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C58EC-5583-424B-8BCE-4F97601BCF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1035">
   <si>
     <t>ES_Country</t>
   </si>
@@ -1600,9 +1600,6 @@
     <t>Ohio</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>Madisonville</t>
   </si>
   <si>
@@ -3074,6 +3071,60 @@
   </si>
   <si>
     <t>19.983333,-102.283333</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon </t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>WIsconsin</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Escocia</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Virginia Occidental</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador </t>
+  </si>
+  <si>
+    <t>Sheridan</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +3490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D375" sqref="D375"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3927,9 +3980,21 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1018</v>
+      </c>
       <c r="C22" t="s">
         <v>67</v>
       </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1019</v>
+      </c>
       <c r="F22" t="s">
         <v>67</v>
       </c>
@@ -4076,9 +4141,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
       <c r="C29" t="s">
         <v>83</v>
       </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
       <c r="F29" t="s">
         <v>84</v>
       </c>
@@ -4110,9 +4181,21 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1020</v>
+      </c>
       <c r="C31" t="s">
         <v>88</v>
       </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1020</v>
+      </c>
       <c r="F31" t="s">
         <v>88</v>
       </c>
@@ -4213,8 +4296,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1021</v>
+      </c>
       <c r="C36" t="s">
         <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1021</v>
       </c>
       <c r="F36" t="s">
         <v>100</v>
@@ -4281,8 +4376,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>469</v>
+      </c>
       <c r="C40" t="s">
         <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>469</v>
       </c>
       <c r="F40" t="s">
         <v>109</v>
@@ -4361,9 +4462,21 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1022</v>
+      </c>
       <c r="C44" t="s">
         <v>117</v>
       </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1022</v>
+      </c>
       <c r="F44" t="s">
         <v>117</v>
       </c>
@@ -4372,8 +4485,20 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
       <c r="C45" t="s">
         <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1023</v>
       </c>
       <c r="F45" t="s">
         <v>119</v>
@@ -4797,8 +4922,20 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1024</v>
+      </c>
       <c r="C64" t="s">
         <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1024</v>
       </c>
       <c r="F64" t="s">
         <v>170</v>
@@ -4969,8 +5106,20 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>525</v>
+      </c>
       <c r="C72" t="s">
         <v>194</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>525</v>
       </c>
       <c r="F72" t="s">
         <v>194</v>
@@ -5095,8 +5244,20 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>525</v>
+      </c>
       <c r="C78" t="s">
         <v>211</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>525</v>
       </c>
       <c r="F78" t="s">
         <v>211</v>
@@ -5336,8 +5497,20 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>525</v>
+      </c>
       <c r="C89" t="s">
         <v>236</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>525</v>
       </c>
       <c r="F89" t="s">
         <v>236</v>
@@ -5531,8 +5704,14 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>432</v>
+      </c>
       <c r="C98" t="s">
         <v>256</v>
+      </c>
+      <c r="D98" t="s">
+        <v>432</v>
       </c>
       <c r="F98" t="s">
         <v>256</v>
@@ -5588,8 +5767,20 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>525</v>
+      </c>
       <c r="C101" t="s">
         <v>262</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>525</v>
       </c>
       <c r="F101" t="s">
         <v>262</v>
@@ -5829,8 +6020,20 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1025</v>
+      </c>
       <c r="C112" t="s">
         <v>286</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1025</v>
       </c>
       <c r="F112" t="s">
         <v>286</v>
@@ -6047,8 +6250,20 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1024</v>
+      </c>
       <c r="C122" t="s">
         <v>305</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1024</v>
       </c>
       <c r="F122" t="s">
         <v>305</v>
@@ -6495,8 +6710,20 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1026</v>
+      </c>
       <c r="C142" t="s">
         <v>347</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1027</v>
       </c>
       <c r="F142" t="s">
         <v>348</v>
@@ -6713,8 +6940,14 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>432</v>
+      </c>
       <c r="C152" t="s">
         <v>368</v>
+      </c>
+      <c r="D152" t="s">
+        <v>432</v>
       </c>
       <c r="F152" t="s">
         <v>368</v>
@@ -6770,8 +7003,20 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1028</v>
+      </c>
       <c r="C155" t="s">
         <v>374</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1028</v>
       </c>
       <c r="F155" t="s">
         <v>374</v>
@@ -7011,9 +7256,21 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>578</v>
+      </c>
       <c r="C166" t="s">
         <v>398</v>
       </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
+        <v>578</v>
+      </c>
       <c r="F166" t="s">
         <v>398</v>
       </c>
@@ -7022,9 +7279,21 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1029</v>
+      </c>
       <c r="C167" t="s">
         <v>400</v>
       </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1029</v>
+      </c>
       <c r="F167" t="s">
         <v>400</v>
       </c>
@@ -7033,9 +7302,18 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1018</v>
+      </c>
       <c r="C168" t="s">
         <v>402</v>
       </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
       <c r="F168" t="s">
         <v>402</v>
       </c>
@@ -7090,8 +7368,20 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>188</v>
+      </c>
       <c r="C171" t="s">
         <v>408</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>188</v>
       </c>
       <c r="F171" t="s">
         <v>408</v>
@@ -7331,9 +7621,21 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1024</v>
+      </c>
       <c r="C182" t="s">
         <v>436</v>
       </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1024</v>
+      </c>
       <c r="F182" t="s">
         <v>436</v>
       </c>
@@ -7342,8 +7644,20 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1024</v>
+      </c>
       <c r="C183" t="s">
         <v>438</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1024</v>
       </c>
       <c r="F183" t="s">
         <v>438</v>
@@ -7787,9 +8101,21 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1024</v>
+      </c>
       <c r="C203" t="s">
         <v>481</v>
       </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1024</v>
+      </c>
       <c r="F203" t="s">
         <v>481</v>
       </c>
@@ -7798,8 +8124,20 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>525</v>
+      </c>
       <c r="C204" t="s">
         <v>483</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
+        <v>525</v>
       </c>
       <c r="F204" t="s">
         <v>483</v>
@@ -7832,8 +8170,20 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1021</v>
+      </c>
       <c r="C206" t="s">
         <v>487</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1021</v>
       </c>
       <c r="F206" t="s">
         <v>487</v>
@@ -7935,9 +8285,15 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>493</v>
+      </c>
       <c r="C211" t="s">
         <v>501</v>
       </c>
+      <c r="E211" t="s">
+        <v>642</v>
+      </c>
       <c r="F211" t="s">
         <v>502</v>
       </c>
@@ -8130,9 +8486,21 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1024</v>
+      </c>
       <c r="C220" t="s">
         <v>521</v>
       </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1024</v>
+      </c>
       <c r="F220" t="s">
         <v>521</v>
       </c>
@@ -8165,36 +8533,42 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
         <v>525</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>526</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>525</v>
+      </c>
+      <c r="F222" t="s">
+        <v>526</v>
+      </c>
+      <c r="G222" t="s">
         <v>527</v>
       </c>
-      <c r="D222" t="s">
-        <v>525</v>
-      </c>
-      <c r="E222" t="s">
-        <v>526</v>
-      </c>
-      <c r="F222" t="s">
-        <v>527</v>
-      </c>
-      <c r="G222" t="s">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>42</v>
+      </c>
+      <c r="C223" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C223" t="s">
+      <c r="D223" t="s">
+        <v>45</v>
+      </c>
+      <c r="F223" t="s">
         <v>529</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>530</v>
-      </c>
-      <c r="G223" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -8205,7 +8579,7 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D224" t="s">
         <v>10</v>
@@ -8214,10 +8588,10 @@
         <v>11</v>
       </c>
       <c r="F224" t="s">
+        <v>531</v>
+      </c>
+      <c r="G224" t="s">
         <v>532</v>
-      </c>
-      <c r="G224" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -8225,22 +8599,22 @@
         <v>7</v>
       </c>
       <c r="B225" t="s">
+        <v>533</v>
+      </c>
+      <c r="C225" t="s">
         <v>534</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" t="s">
+        <v>533</v>
+      </c>
+      <c r="F225" t="s">
+        <v>534</v>
+      </c>
+      <c r="G225" t="s">
         <v>535</v>
-      </c>
-      <c r="D225" t="s">
-        <v>10</v>
-      </c>
-      <c r="E225" t="s">
-        <v>534</v>
-      </c>
-      <c r="F225" t="s">
-        <v>535</v>
-      </c>
-      <c r="G225" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -8251,7 +8625,7 @@
         <v>494</v>
       </c>
       <c r="C226" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D226" t="s">
         <v>496</v>
@@ -8260,21 +8634,33 @@
         <v>497</v>
       </c>
       <c r="F226" t="s">
+        <v>536</v>
+      </c>
+      <c r="G226" t="s">
         <v>537</v>
       </c>
-      <c r="G226" t="s">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C227" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C227" t="s">
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F227" t="s">
+        <v>538</v>
+      </c>
+      <c r="G227" t="s">
         <v>539</v>
-      </c>
-      <c r="F227" t="s">
-        <v>539</v>
-      </c>
-      <c r="G227" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -8285,7 +8671,7 @@
         <v>510</v>
       </c>
       <c r="C228" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D228" t="s">
         <v>10</v>
@@ -8294,10 +8680,10 @@
         <v>510</v>
       </c>
       <c r="F228" t="s">
+        <v>540</v>
+      </c>
+      <c r="G228" t="s">
         <v>541</v>
-      </c>
-      <c r="G228" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -8308,7 +8694,7 @@
         <v>150</v>
       </c>
       <c r="C229" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D229" t="s">
         <v>17</v>
@@ -8317,10 +8703,10 @@
         <v>150</v>
       </c>
       <c r="F229" t="s">
+        <v>542</v>
+      </c>
+      <c r="G229" t="s">
         <v>543</v>
-      </c>
-      <c r="G229" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -8331,7 +8717,7 @@
         <v>39</v>
       </c>
       <c r="C230" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
@@ -8340,10 +8726,10 @@
         <v>39</v>
       </c>
       <c r="F230" t="s">
+        <v>544</v>
+      </c>
+      <c r="G230" t="s">
         <v>545</v>
-      </c>
-      <c r="G230" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -8351,22 +8737,22 @@
         <v>121</v>
       </c>
       <c r="B231" t="s">
+        <v>546</v>
+      </c>
+      <c r="C231" t="s">
         <v>547</v>
-      </c>
-      <c r="C231" t="s">
-        <v>548</v>
       </c>
       <c r="D231" t="s">
         <v>124</v>
       </c>
       <c r="E231" t="s">
+        <v>548</v>
+      </c>
+      <c r="F231" t="s">
+        <v>547</v>
+      </c>
+      <c r="G231" t="s">
         <v>549</v>
-      </c>
-      <c r="F231" t="s">
-        <v>548</v>
-      </c>
-      <c r="G231" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -8377,7 +8763,7 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D232" t="s">
         <v>10</v>
@@ -8386,10 +8772,10 @@
         <v>11</v>
       </c>
       <c r="F232" t="s">
+        <v>550</v>
+      </c>
+      <c r="G232" t="s">
         <v>551</v>
-      </c>
-      <c r="G232" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -8400,7 +8786,7 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D233" t="s">
         <v>10</v>
@@ -8409,7 +8795,7 @@
         <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G233" t="s">
         <v>12</v>
@@ -8423,7 +8809,7 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D234" t="s">
         <v>10</v>
@@ -8432,10 +8818,10 @@
         <v>11</v>
       </c>
       <c r="F234" t="s">
+        <v>553</v>
+      </c>
+      <c r="G234" t="s">
         <v>554</v>
-      </c>
-      <c r="G234" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -8443,7 +8829,7 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C235" t="s">
         <v>175</v>
@@ -8452,13 +8838,13 @@
         <v>17</v>
       </c>
       <c r="E235" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F235" t="s">
         <v>177</v>
       </c>
       <c r="G235" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -8469,7 +8855,7 @@
         <v>188</v>
       </c>
       <c r="C236" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D236" t="s">
         <v>10</v>
@@ -8478,10 +8864,10 @@
         <v>188</v>
       </c>
       <c r="F236" t="s">
+        <v>558</v>
+      </c>
+      <c r="G236" t="s">
         <v>559</v>
-      </c>
-      <c r="G236" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -8492,7 +8878,7 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D237" t="s">
         <v>10</v>
@@ -8501,10 +8887,10 @@
         <v>11</v>
       </c>
       <c r="F237" t="s">
+        <v>560</v>
+      </c>
+      <c r="G237" t="s">
         <v>561</v>
-      </c>
-      <c r="G237" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -8515,7 +8901,7 @@
         <v>39</v>
       </c>
       <c r="C238" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D238" t="s">
         <v>10</v>
@@ -8524,10 +8910,10 @@
         <v>39</v>
       </c>
       <c r="F238" t="s">
+        <v>562</v>
+      </c>
+      <c r="G238" t="s">
         <v>563</v>
-      </c>
-      <c r="G238" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -8535,22 +8921,22 @@
         <v>7</v>
       </c>
       <c r="B239" t="s">
+        <v>564</v>
+      </c>
+      <c r="C239" t="s">
         <v>565</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
+        <v>564</v>
+      </c>
+      <c r="F239" t="s">
+        <v>565</v>
+      </c>
+      <c r="G239" t="s">
         <v>566</v>
-      </c>
-      <c r="D239" t="s">
-        <v>10</v>
-      </c>
-      <c r="E239" t="s">
-        <v>565</v>
-      </c>
-      <c r="F239" t="s">
-        <v>566</v>
-      </c>
-      <c r="G239" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -8561,7 +8947,7 @@
         <v>27</v>
       </c>
       <c r="C240" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D240" t="s">
         <v>10</v>
@@ -8570,10 +8956,10 @@
         <v>27</v>
       </c>
       <c r="F240" t="s">
+        <v>567</v>
+      </c>
+      <c r="G240" t="s">
         <v>568</v>
-      </c>
-      <c r="G240" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -8581,22 +8967,22 @@
         <v>7</v>
       </c>
       <c r="B241" t="s">
+        <v>569</v>
+      </c>
+      <c r="C241" t="s">
         <v>570</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" t="s">
+        <v>569</v>
+      </c>
+      <c r="F241" t="s">
+        <v>570</v>
+      </c>
+      <c r="G241" t="s">
         <v>571</v>
-      </c>
-      <c r="D241" t="s">
-        <v>10</v>
-      </c>
-      <c r="E241" t="s">
-        <v>570</v>
-      </c>
-      <c r="F241" t="s">
-        <v>571</v>
-      </c>
-      <c r="G241" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -8607,7 +8993,7 @@
         <v>27</v>
       </c>
       <c r="C242" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D242" t="s">
         <v>10</v>
@@ -8616,10 +9002,10 @@
         <v>27</v>
       </c>
       <c r="F242" t="s">
+        <v>572</v>
+      </c>
+      <c r="G242" t="s">
         <v>573</v>
-      </c>
-      <c r="G242" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -8630,7 +9016,7 @@
         <v>372</v>
       </c>
       <c r="C243" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D243" t="s">
         <v>17</v>
@@ -8639,10 +9025,10 @@
         <v>372</v>
       </c>
       <c r="F243" t="s">
+        <v>574</v>
+      </c>
+      <c r="G243" t="s">
         <v>575</v>
-      </c>
-      <c r="G243" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -8653,7 +9039,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D244" t="s">
         <v>10</v>
@@ -8662,10 +9048,10 @@
         <v>11</v>
       </c>
       <c r="F244" t="s">
+        <v>576</v>
+      </c>
+      <c r="G244" t="s">
         <v>577</v>
-      </c>
-      <c r="G244" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -8673,22 +9059,22 @@
         <v>7</v>
       </c>
       <c r="B245" t="s">
+        <v>578</v>
+      </c>
+      <c r="C245" t="s">
         <v>579</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" t="s">
+        <v>578</v>
+      </c>
+      <c r="F245" t="s">
+        <v>579</v>
+      </c>
+      <c r="G245" t="s">
         <v>580</v>
-      </c>
-      <c r="D245" t="s">
-        <v>10</v>
-      </c>
-      <c r="E245" t="s">
-        <v>579</v>
-      </c>
-      <c r="F245" t="s">
-        <v>580</v>
-      </c>
-      <c r="G245" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -8699,7 +9085,7 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D246" t="s">
         <v>10</v>
@@ -8708,10 +9094,10 @@
         <v>11</v>
       </c>
       <c r="F246" t="s">
+        <v>581</v>
+      </c>
+      <c r="G246" t="s">
         <v>582</v>
-      </c>
-      <c r="G246" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -8719,45 +9105,45 @@
         <v>121</v>
       </c>
       <c r="B247" t="s">
+        <v>583</v>
+      </c>
+      <c r="C247" t="s">
         <v>584</v>
-      </c>
-      <c r="C247" t="s">
-        <v>585</v>
       </c>
       <c r="D247" t="s">
         <v>124</v>
       </c>
       <c r="E247" t="s">
+        <v>583</v>
+      </c>
+      <c r="F247" t="s">
         <v>584</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>585</v>
-      </c>
-      <c r="G247" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>586</v>
+      </c>
+      <c r="B248" t="s">
         <v>587</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>588</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>589</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
+        <v>587</v>
+      </c>
+      <c r="F248" t="s">
+        <v>588</v>
+      </c>
+      <c r="G248" t="s">
         <v>590</v>
-      </c>
-      <c r="E248" t="s">
-        <v>588</v>
-      </c>
-      <c r="F248" t="s">
-        <v>589</v>
-      </c>
-      <c r="G248" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -8768,7 +9154,7 @@
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D249" t="s">
         <v>10</v>
@@ -8777,10 +9163,10 @@
         <v>11</v>
       </c>
       <c r="F249" t="s">
+        <v>591</v>
+      </c>
+      <c r="G249" t="s">
         <v>592</v>
-      </c>
-      <c r="G249" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -8791,7 +9177,7 @@
         <v>49</v>
       </c>
       <c r="C250" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D250" t="s">
         <v>10</v>
@@ -8800,10 +9186,10 @@
         <v>49</v>
       </c>
       <c r="F250" t="s">
+        <v>593</v>
+      </c>
+      <c r="G250" t="s">
         <v>594</v>
-      </c>
-      <c r="G250" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -8814,7 +9200,7 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D251" t="s">
         <v>10</v>
@@ -8823,33 +9209,33 @@
         <v>11</v>
       </c>
       <c r="F251" t="s">
+        <v>595</v>
+      </c>
+      <c r="G251" t="s">
         <v>596</v>
-      </c>
-      <c r="G251" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>597</v>
+      </c>
+      <c r="B252" t="s">
         <v>598</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>599</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
+        <v>597</v>
+      </c>
+      <c r="E252" t="s">
+        <v>598</v>
+      </c>
+      <c r="F252" t="s">
+        <v>599</v>
+      </c>
+      <c r="G252" t="s">
         <v>600</v>
-      </c>
-      <c r="D252" t="s">
-        <v>598</v>
-      </c>
-      <c r="E252" t="s">
-        <v>599</v>
-      </c>
-      <c r="F252" t="s">
-        <v>600</v>
-      </c>
-      <c r="G252" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -8860,7 +9246,7 @@
         <v>62</v>
       </c>
       <c r="C253" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D253" t="s">
         <v>10</v>
@@ -8869,10 +9255,10 @@
         <v>62</v>
       </c>
       <c r="F253" t="s">
+        <v>601</v>
+      </c>
+      <c r="G253" t="s">
         <v>602</v>
-      </c>
-      <c r="G253" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -8883,7 +9269,7 @@
         <v>329</v>
       </c>
       <c r="C254" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D254" t="s">
         <v>10</v>
@@ -8892,33 +9278,33 @@
         <v>329</v>
       </c>
       <c r="F254" t="s">
+        <v>603</v>
+      </c>
+      <c r="G254" t="s">
         <v>604</v>
-      </c>
-      <c r="G254" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>605</v>
+      </c>
+      <c r="B255" t="s">
         <v>606</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>607</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
+        <v>605</v>
+      </c>
+      <c r="E255" t="s">
         <v>608</v>
       </c>
-      <c r="D255" t="s">
-        <v>606</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
+        <v>607</v>
+      </c>
+      <c r="G255" t="s">
         <v>609</v>
-      </c>
-      <c r="F255" t="s">
-        <v>608</v>
-      </c>
-      <c r="G255" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -8929,7 +9315,7 @@
         <v>49</v>
       </c>
       <c r="C256" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D256" t="s">
         <v>10</v>
@@ -8938,33 +9324,33 @@
         <v>49</v>
       </c>
       <c r="F256" t="s">
+        <v>610</v>
+      </c>
+      <c r="G256" t="s">
         <v>611</v>
-      </c>
-      <c r="G256" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>612</v>
+      </c>
+      <c r="B257" t="s">
         <v>613</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>614</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>615</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
+        <v>613</v>
+      </c>
+      <c r="F257" t="s">
+        <v>614</v>
+      </c>
+      <c r="G257" t="s">
         <v>616</v>
-      </c>
-      <c r="E257" t="s">
-        <v>614</v>
-      </c>
-      <c r="F257" t="s">
-        <v>615</v>
-      </c>
-      <c r="G257" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -8975,7 +9361,7 @@
         <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D258" t="s">
         <v>10</v>
@@ -8984,10 +9370,10 @@
         <v>27</v>
       </c>
       <c r="F258" t="s">
+        <v>617</v>
+      </c>
+      <c r="G258" t="s">
         <v>618</v>
-      </c>
-      <c r="G258" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -8998,7 +9384,7 @@
         <v>510</v>
       </c>
       <c r="C259" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D259" t="s">
         <v>10</v>
@@ -9007,10 +9393,10 @@
         <v>510</v>
       </c>
       <c r="F259" t="s">
+        <v>619</v>
+      </c>
+      <c r="G259" t="s">
         <v>620</v>
-      </c>
-      <c r="G259" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -9018,22 +9404,22 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C260" t="s">
+        <v>621</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" t="s">
+        <v>569</v>
+      </c>
+      <c r="F260" t="s">
+        <v>621</v>
+      </c>
+      <c r="G260" t="s">
         <v>622</v>
-      </c>
-      <c r="D260" t="s">
-        <v>10</v>
-      </c>
-      <c r="E260" t="s">
-        <v>570</v>
-      </c>
-      <c r="F260" t="s">
-        <v>622</v>
-      </c>
-      <c r="G260" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -9044,7 +9430,7 @@
         <v>92</v>
       </c>
       <c r="C261" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D261" t="s">
         <v>10</v>
@@ -9053,33 +9439,33 @@
         <v>94</v>
       </c>
       <c r="F261" t="s">
+        <v>623</v>
+      </c>
+      <c r="G261" t="s">
         <v>624</v>
-      </c>
-      <c r="G261" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B262" t="s">
+        <v>625</v>
+      </c>
+      <c r="C262" t="s">
         <v>626</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
+        <v>589</v>
+      </c>
+      <c r="E262" t="s">
+        <v>625</v>
+      </c>
+      <c r="F262" t="s">
+        <v>626</v>
+      </c>
+      <c r="G262" t="s">
         <v>627</v>
-      </c>
-      <c r="D262" t="s">
-        <v>590</v>
-      </c>
-      <c r="E262" t="s">
-        <v>626</v>
-      </c>
-      <c r="F262" t="s">
-        <v>627</v>
-      </c>
-      <c r="G262" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -9087,22 +9473,22 @@
         <v>121</v>
       </c>
       <c r="B263" t="s">
+        <v>628</v>
+      </c>
+      <c r="C263" t="s">
         <v>629</v>
-      </c>
-      <c r="C263" t="s">
-        <v>630</v>
       </c>
       <c r="D263" t="s">
         <v>124</v>
       </c>
       <c r="E263" t="s">
+        <v>628</v>
+      </c>
+      <c r="F263" t="s">
         <v>629</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
         <v>630</v>
-      </c>
-      <c r="G263" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -9113,7 +9499,7 @@
         <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D264" t="s">
         <v>10</v>
@@ -9122,10 +9508,10 @@
         <v>11</v>
       </c>
       <c r="F264" t="s">
+        <v>631</v>
+      </c>
+      <c r="G264" t="s">
         <v>632</v>
-      </c>
-      <c r="G264" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -9136,7 +9522,7 @@
         <v>49</v>
       </c>
       <c r="C265" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D265" t="s">
         <v>10</v>
@@ -9145,10 +9531,10 @@
         <v>49</v>
       </c>
       <c r="F265" t="s">
+        <v>633</v>
+      </c>
+      <c r="G265" t="s">
         <v>634</v>
-      </c>
-      <c r="G265" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -9156,22 +9542,22 @@
         <v>7</v>
       </c>
       <c r="B266" t="s">
+        <v>635</v>
+      </c>
+      <c r="C266" t="s">
         <v>636</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" t="s">
+        <v>635</v>
+      </c>
+      <c r="F266" t="s">
+        <v>636</v>
+      </c>
+      <c r="G266" t="s">
         <v>637</v>
-      </c>
-      <c r="D266" t="s">
-        <v>10</v>
-      </c>
-      <c r="E266" t="s">
-        <v>636</v>
-      </c>
-      <c r="F266" t="s">
-        <v>637</v>
-      </c>
-      <c r="G266" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -9182,7 +9568,7 @@
         <v>62</v>
       </c>
       <c r="C267" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D267" t="s">
         <v>10</v>
@@ -9191,10 +9577,10 @@
         <v>62</v>
       </c>
       <c r="F267" t="s">
+        <v>638</v>
+      </c>
+      <c r="G267" t="s">
         <v>639</v>
-      </c>
-      <c r="G267" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -9202,22 +9588,22 @@
         <v>493</v>
       </c>
       <c r="B268" t="s">
+        <v>640</v>
+      </c>
+      <c r="C268" t="s">
         <v>641</v>
-      </c>
-      <c r="C268" t="s">
-        <v>642</v>
       </c>
       <c r="D268" t="s">
         <v>496</v>
       </c>
       <c r="E268" t="s">
+        <v>642</v>
+      </c>
+      <c r="F268" t="s">
+        <v>641</v>
+      </c>
+      <c r="G268" t="s">
         <v>643</v>
-      </c>
-      <c r="F268" t="s">
-        <v>642</v>
-      </c>
-      <c r="G268" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -9225,22 +9611,22 @@
         <v>15</v>
       </c>
       <c r="B269" t="s">
+        <v>644</v>
+      </c>
+      <c r="C269" t="s">
         <v>645</v>
-      </c>
-      <c r="C269" t="s">
-        <v>646</v>
       </c>
       <c r="D269" t="s">
         <v>17</v>
       </c>
       <c r="E269" t="s">
+        <v>644</v>
+      </c>
+      <c r="F269" t="s">
         <v>645</v>
       </c>
-      <c r="F269" t="s">
+      <c r="G269" t="s">
         <v>646</v>
-      </c>
-      <c r="G269" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -9251,7 +9637,7 @@
         <v>27</v>
       </c>
       <c r="C270" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D270" t="s">
         <v>10</v>
@@ -9260,10 +9646,10 @@
         <v>27</v>
       </c>
       <c r="F270" t="s">
+        <v>647</v>
+      </c>
+      <c r="G270" t="s">
         <v>648</v>
-      </c>
-      <c r="G270" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -9271,33 +9657,45 @@
         <v>15</v>
       </c>
       <c r="B271" t="s">
+        <v>649</v>
+      </c>
+      <c r="C271" t="s">
         <v>650</v>
-      </c>
-      <c r="C271" t="s">
-        <v>651</v>
       </c>
       <c r="D271" t="s">
         <v>17</v>
       </c>
       <c r="E271" t="s">
+        <v>649</v>
+      </c>
+      <c r="F271" t="s">
         <v>650</v>
       </c>
-      <c r="F271" t="s">
+      <c r="G271" t="s">
         <v>651</v>
       </c>
-      <c r="G271" t="s">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C272" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C272" t="s">
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F272" t="s">
+        <v>652</v>
+      </c>
+      <c r="G272" t="s">
         <v>653</v>
-      </c>
-      <c r="F272" t="s">
-        <v>653</v>
-      </c>
-      <c r="G272" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -9308,7 +9706,7 @@
         <v>33</v>
       </c>
       <c r="C273" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D273" t="s">
         <v>17</v>
@@ -9317,10 +9715,10 @@
         <v>33</v>
       </c>
       <c r="F273" t="s">
+        <v>654</v>
+      </c>
+      <c r="G273" t="s">
         <v>655</v>
-      </c>
-      <c r="G273" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -9331,7 +9729,7 @@
         <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D274" t="s">
         <v>10</v>
@@ -9340,10 +9738,10 @@
         <v>11</v>
       </c>
       <c r="F274" t="s">
+        <v>656</v>
+      </c>
+      <c r="G274" t="s">
         <v>657</v>
-      </c>
-      <c r="G274" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -9354,7 +9752,7 @@
         <v>30</v>
       </c>
       <c r="C275" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D275" t="s">
         <v>10</v>
@@ -9363,10 +9761,10 @@
         <v>30</v>
       </c>
       <c r="F275" t="s">
+        <v>658</v>
+      </c>
+      <c r="G275" t="s">
         <v>659</v>
-      </c>
-      <c r="G275" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -9377,7 +9775,7 @@
         <v>30</v>
       </c>
       <c r="C276" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D276" t="s">
         <v>10</v>
@@ -9386,10 +9784,10 @@
         <v>30</v>
       </c>
       <c r="F276" t="s">
+        <v>660</v>
+      </c>
+      <c r="G276" t="s">
         <v>661</v>
-      </c>
-      <c r="G276" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -9400,7 +9798,7 @@
         <v>135</v>
       </c>
       <c r="C277" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D277" t="s">
         <v>17</v>
@@ -9409,10 +9807,10 @@
         <v>135</v>
       </c>
       <c r="F277" t="s">
+        <v>662</v>
+      </c>
+      <c r="G277" t="s">
         <v>663</v>
-      </c>
-      <c r="G277" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -9423,7 +9821,7 @@
         <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D278" t="s">
         <v>10</v>
@@ -9432,10 +9830,10 @@
         <v>11</v>
       </c>
       <c r="F278" t="s">
+        <v>664</v>
+      </c>
+      <c r="G278" t="s">
         <v>665</v>
-      </c>
-      <c r="G278" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -9446,7 +9844,7 @@
         <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D279" t="s">
         <v>10</v>
@@ -9455,10 +9853,10 @@
         <v>11</v>
       </c>
       <c r="F279" t="s">
+        <v>666</v>
+      </c>
+      <c r="G279" t="s">
         <v>667</v>
-      </c>
-      <c r="G279" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -9469,7 +9867,7 @@
         <v>290</v>
       </c>
       <c r="C280" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D280" t="s">
         <v>17</v>
@@ -9478,21 +9876,33 @@
         <v>290</v>
       </c>
       <c r="F280" t="s">
+        <v>668</v>
+      </c>
+      <c r="G280" t="s">
         <v>669</v>
       </c>
-      <c r="G280" t="s">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C281" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C281" t="s">
+      <c r="D281" t="s">
+        <v>10</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F281" t="s">
+        <v>670</v>
+      </c>
+      <c r="G281" t="s">
         <v>671</v>
-      </c>
-      <c r="F281" t="s">
-        <v>671</v>
-      </c>
-      <c r="G281" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -9500,22 +9910,22 @@
         <v>15</v>
       </c>
       <c r="B282" t="s">
+        <v>672</v>
+      </c>
+      <c r="C282" t="s">
         <v>673</v>
-      </c>
-      <c r="C282" t="s">
-        <v>674</v>
       </c>
       <c r="D282" t="s">
         <v>17</v>
       </c>
       <c r="E282" t="s">
+        <v>672</v>
+      </c>
+      <c r="F282" t="s">
         <v>673</v>
       </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>674</v>
-      </c>
-      <c r="G282" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -9526,7 +9936,7 @@
         <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D283" t="s">
         <v>10</v>
@@ -9535,10 +9945,10 @@
         <v>27</v>
       </c>
       <c r="F283" t="s">
+        <v>675</v>
+      </c>
+      <c r="G283" t="s">
         <v>676</v>
-      </c>
-      <c r="G283" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -9546,22 +9956,22 @@
         <v>121</v>
       </c>
       <c r="B284" t="s">
+        <v>677</v>
+      </c>
+      <c r="C284" t="s">
         <v>678</v>
-      </c>
-      <c r="C284" t="s">
-        <v>679</v>
       </c>
       <c r="D284" t="s">
         <v>124</v>
       </c>
       <c r="E284" t="s">
+        <v>677</v>
+      </c>
+      <c r="F284" t="s">
         <v>678</v>
       </c>
-      <c r="F284" t="s">
+      <c r="G284" t="s">
         <v>679</v>
-      </c>
-      <c r="G284" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -9572,7 +9982,7 @@
         <v>39</v>
       </c>
       <c r="C285" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D285" t="s">
         <v>10</v>
@@ -9581,21 +9991,33 @@
         <v>39</v>
       </c>
       <c r="F285" t="s">
+        <v>680</v>
+      </c>
+      <c r="G285" t="s">
         <v>681</v>
       </c>
-      <c r="G285" t="s">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C286" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C286" t="s">
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F286" t="s">
+        <v>682</v>
+      </c>
+      <c r="G286" t="s">
         <v>683</v>
-      </c>
-      <c r="F286" t="s">
-        <v>683</v>
-      </c>
-      <c r="G286" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -9606,7 +10028,7 @@
         <v>33</v>
       </c>
       <c r="C287" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D287" t="s">
         <v>17</v>
@@ -9615,7 +10037,7 @@
         <v>33</v>
       </c>
       <c r="F287" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G287" t="s">
         <v>391</v>
@@ -9629,7 +10051,7 @@
         <v>27</v>
       </c>
       <c r="C288" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D288" t="s">
         <v>10</v>
@@ -9638,10 +10060,10 @@
         <v>27</v>
       </c>
       <c r="F288" t="s">
+        <v>685</v>
+      </c>
+      <c r="G288" t="s">
         <v>686</v>
-      </c>
-      <c r="G288" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -9652,7 +10074,7 @@
         <v>49</v>
       </c>
       <c r="C289" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D289" t="s">
         <v>10</v>
@@ -9661,10 +10083,10 @@
         <v>49</v>
       </c>
       <c r="F289" t="s">
+        <v>687</v>
+      </c>
+      <c r="G289" t="s">
         <v>688</v>
-      </c>
-      <c r="G289" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -9675,7 +10097,7 @@
         <v>39</v>
       </c>
       <c r="C290" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D290" t="s">
         <v>10</v>
@@ -9684,10 +10106,10 @@
         <v>39</v>
       </c>
       <c r="F290" t="s">
+        <v>689</v>
+      </c>
+      <c r="G290" t="s">
         <v>690</v>
-      </c>
-      <c r="G290" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -9698,7 +10120,7 @@
         <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D291" t="s">
         <v>10</v>
@@ -9707,10 +10129,10 @@
         <v>11</v>
       </c>
       <c r="F291" t="s">
+        <v>691</v>
+      </c>
+      <c r="G291" t="s">
         <v>692</v>
-      </c>
-      <c r="G291" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -9721,7 +10143,7 @@
         <v>27</v>
       </c>
       <c r="C292" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D292" t="s">
         <v>10</v>
@@ -9730,10 +10152,10 @@
         <v>27</v>
       </c>
       <c r="F292" t="s">
+        <v>693</v>
+      </c>
+      <c r="G292" t="s">
         <v>694</v>
-      </c>
-      <c r="G292" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -9744,7 +10166,7 @@
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D293" t="s">
         <v>10</v>
@@ -9753,10 +10175,10 @@
         <v>11</v>
       </c>
       <c r="F293" t="s">
+        <v>695</v>
+      </c>
+      <c r="G293" t="s">
         <v>696</v>
-      </c>
-      <c r="G293" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -9767,7 +10189,7 @@
         <v>147</v>
       </c>
       <c r="C294" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D294" t="s">
         <v>10</v>
@@ -9776,10 +10198,10 @@
         <v>147</v>
       </c>
       <c r="F294" t="s">
+        <v>697</v>
+      </c>
+      <c r="G294" t="s">
         <v>698</v>
-      </c>
-      <c r="G294" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -9790,7 +10212,7 @@
         <v>62</v>
       </c>
       <c r="C295" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D295" t="s">
         <v>10</v>
@@ -9799,10 +10221,10 @@
         <v>62</v>
       </c>
       <c r="F295" t="s">
+        <v>699</v>
+      </c>
+      <c r="G295" t="s">
         <v>700</v>
-      </c>
-      <c r="G295" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -9813,7 +10235,7 @@
         <v>23</v>
       </c>
       <c r="C296" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D296" t="s">
         <v>10</v>
@@ -9822,10 +10244,10 @@
         <v>25</v>
       </c>
       <c r="F296" t="s">
+        <v>701</v>
+      </c>
+      <c r="G296" t="s">
         <v>702</v>
-      </c>
-      <c r="G296" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -9836,7 +10258,7 @@
         <v>49</v>
       </c>
       <c r="C297" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D297" t="s">
         <v>10</v>
@@ -9845,21 +10267,33 @@
         <v>49</v>
       </c>
       <c r="F297" t="s">
+        <v>703</v>
+      </c>
+      <c r="G297" t="s">
         <v>704</v>
       </c>
-      <c r="G297" t="s">
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C298" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C298" t="s">
+      <c r="D298" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F298" t="s">
+        <v>705</v>
+      </c>
+      <c r="G298" t="s">
         <v>706</v>
-      </c>
-      <c r="F298" t="s">
-        <v>706</v>
-      </c>
-      <c r="G298" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -9867,22 +10301,22 @@
         <v>7</v>
       </c>
       <c r="B299" t="s">
+        <v>707</v>
+      </c>
+      <c r="C299" t="s">
         <v>708</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" t="s">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
         <v>709</v>
       </c>
-      <c r="D299" t="s">
-        <v>10</v>
-      </c>
-      <c r="E299" t="s">
+      <c r="F299" t="s">
+        <v>708</v>
+      </c>
+      <c r="G299" t="s">
         <v>710</v>
-      </c>
-      <c r="F299" t="s">
-        <v>709</v>
-      </c>
-      <c r="G299" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -9893,7 +10327,7 @@
         <v>8</v>
       </c>
       <c r="C300" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D300" t="s">
         <v>10</v>
@@ -9902,10 +10336,10 @@
         <v>11</v>
       </c>
       <c r="F300" t="s">
+        <v>711</v>
+      </c>
+      <c r="G300" t="s">
         <v>712</v>
-      </c>
-      <c r="G300" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -9916,7 +10350,7 @@
         <v>23</v>
       </c>
       <c r="C301" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D301" t="s">
         <v>10</v>
@@ -9925,10 +10359,10 @@
         <v>25</v>
       </c>
       <c r="F301" t="s">
+        <v>713</v>
+      </c>
+      <c r="G301" t="s">
         <v>714</v>
-      </c>
-      <c r="G301" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -9939,7 +10373,7 @@
         <v>74</v>
       </c>
       <c r="C302" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D302" t="s">
         <v>10</v>
@@ -9948,10 +10382,10 @@
         <v>74</v>
       </c>
       <c r="F302" t="s">
+        <v>715</v>
+      </c>
+      <c r="G302" t="s">
         <v>716</v>
-      </c>
-      <c r="G302" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -9962,7 +10396,7 @@
         <v>8</v>
       </c>
       <c r="C303" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D303" t="s">
         <v>10</v>
@@ -9971,21 +10405,33 @@
         <v>11</v>
       </c>
       <c r="F303" t="s">
+        <v>717</v>
+      </c>
+      <c r="G303" t="s">
         <v>718</v>
       </c>
-      <c r="G303" t="s">
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C304" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C304" t="s">
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F304" t="s">
+        <v>719</v>
+      </c>
+      <c r="G304" t="s">
         <v>720</v>
-      </c>
-      <c r="F304" t="s">
-        <v>720</v>
-      </c>
-      <c r="G304" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -9996,7 +10442,7 @@
         <v>49</v>
       </c>
       <c r="C305" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D305" t="s">
         <v>10</v>
@@ -10005,10 +10451,10 @@
         <v>49</v>
       </c>
       <c r="F305" t="s">
+        <v>721</v>
+      </c>
+      <c r="G305" t="s">
         <v>722</v>
-      </c>
-      <c r="G305" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -10019,7 +10465,7 @@
         <v>191</v>
       </c>
       <c r="C306" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D306" t="s">
         <v>17</v>
@@ -10028,10 +10474,10 @@
         <v>191</v>
       </c>
       <c r="F306" t="s">
+        <v>724</v>
+      </c>
+      <c r="G306" t="s">
         <v>725</v>
-      </c>
-      <c r="G306" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -10042,7 +10488,7 @@
         <v>228</v>
       </c>
       <c r="C307" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D307" t="s">
         <v>10</v>
@@ -10051,10 +10497,10 @@
         <v>228</v>
       </c>
       <c r="F307" t="s">
+        <v>726</v>
+      </c>
+      <c r="G307" t="s">
         <v>727</v>
-      </c>
-      <c r="G307" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -10062,22 +10508,22 @@
         <v>15</v>
       </c>
       <c r="B308" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C308" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D308" t="s">
         <v>17</v>
       </c>
       <c r="E308" t="s">
+        <v>729</v>
+      </c>
+      <c r="F308" t="s">
+        <v>729</v>
+      </c>
+      <c r="G308" t="s">
         <v>730</v>
-      </c>
-      <c r="F308" t="s">
-        <v>730</v>
-      </c>
-      <c r="G308" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -10088,7 +10534,7 @@
         <v>39</v>
       </c>
       <c r="C309" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D309" t="s">
         <v>10</v>
@@ -10097,33 +10543,33 @@
         <v>39</v>
       </c>
       <c r="F309" t="s">
+        <v>731</v>
+      </c>
+      <c r="G309" t="s">
         <v>732</v>
-      </c>
-      <c r="G309" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B310" t="s">
+        <v>733</v>
+      </c>
+      <c r="C310" t="s">
         <v>734</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
+        <v>589</v>
+      </c>
+      <c r="E310" t="s">
+        <v>733</v>
+      </c>
+      <c r="F310" t="s">
+        <v>734</v>
+      </c>
+      <c r="G310" t="s">
         <v>735</v>
-      </c>
-      <c r="D310" t="s">
-        <v>590</v>
-      </c>
-      <c r="E310" t="s">
-        <v>734</v>
-      </c>
-      <c r="F310" t="s">
-        <v>735</v>
-      </c>
-      <c r="G310" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -10134,7 +10580,7 @@
         <v>55</v>
       </c>
       <c r="C311" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D311" t="s">
         <v>10</v>
@@ -10143,33 +10589,33 @@
         <v>55</v>
       </c>
       <c r="F311" t="s">
+        <v>736</v>
+      </c>
+      <c r="G311" t="s">
         <v>737</v>
-      </c>
-      <c r="G311" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>738</v>
+      </c>
+      <c r="B312" t="s">
         <v>739</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>740</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>741</v>
       </c>
-      <c r="D312" t="s">
+      <c r="E312" t="s">
         <v>742</v>
       </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
+        <v>740</v>
+      </c>
+      <c r="G312" t="s">
         <v>743</v>
-      </c>
-      <c r="F312" t="s">
-        <v>741</v>
-      </c>
-      <c r="G312" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -10180,7 +10626,7 @@
         <v>8</v>
       </c>
       <c r="C313" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D313" t="s">
         <v>10</v>
@@ -10189,10 +10635,10 @@
         <v>11</v>
       </c>
       <c r="F313" t="s">
+        <v>744</v>
+      </c>
+      <c r="G313" t="s">
         <v>745</v>
-      </c>
-      <c r="G313" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -10203,7 +10649,7 @@
         <v>27</v>
       </c>
       <c r="C314" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D314" t="s">
         <v>10</v>
@@ -10212,21 +10658,33 @@
         <v>27</v>
       </c>
       <c r="F314" t="s">
+        <v>746</v>
+      </c>
+      <c r="G314" t="s">
         <v>747</v>
       </c>
-      <c r="G314" t="s">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" t="s">
+        <v>564</v>
+      </c>
+      <c r="C315" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C315" t="s">
+      <c r="D315" t="s">
+        <v>10</v>
+      </c>
+      <c r="E315" t="s">
+        <v>564</v>
+      </c>
+      <c r="F315" t="s">
+        <v>748</v>
+      </c>
+      <c r="G315" t="s">
         <v>749</v>
-      </c>
-      <c r="F315" t="s">
-        <v>749</v>
-      </c>
-      <c r="G315" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
@@ -10237,7 +10695,7 @@
         <v>92</v>
       </c>
       <c r="C316" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D316" t="s">
         <v>10</v>
@@ -10246,10 +10704,10 @@
         <v>94</v>
       </c>
       <c r="F316" t="s">
+        <v>750</v>
+      </c>
+      <c r="G316" t="s">
         <v>751</v>
-      </c>
-      <c r="G316" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -10260,7 +10718,7 @@
         <v>8</v>
       </c>
       <c r="C317" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D317" t="s">
         <v>10</v>
@@ -10269,10 +10727,10 @@
         <v>11</v>
       </c>
       <c r="F317" t="s">
+        <v>752</v>
+      </c>
+      <c r="G317" t="s">
         <v>753</v>
-      </c>
-      <c r="G317" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -10283,7 +10741,7 @@
         <v>142</v>
       </c>
       <c r="C318" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D318" t="s">
         <v>10</v>
@@ -10292,10 +10750,10 @@
         <v>142</v>
       </c>
       <c r="F318" t="s">
+        <v>754</v>
+      </c>
+      <c r="G318" t="s">
         <v>755</v>
-      </c>
-      <c r="G318" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -10306,7 +10764,7 @@
         <v>142</v>
       </c>
       <c r="C319" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D319" t="s">
         <v>10</v>
@@ -10315,10 +10773,10 @@
         <v>142</v>
       </c>
       <c r="F319" t="s">
+        <v>756</v>
+      </c>
+      <c r="G319" t="s">
         <v>757</v>
-      </c>
-      <c r="G319" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -10329,7 +10787,7 @@
         <v>8</v>
       </c>
       <c r="C320" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D320" t="s">
         <v>10</v>
@@ -10338,7 +10796,7 @@
         <v>11</v>
       </c>
       <c r="F320" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G320" t="s">
         <v>227</v>
@@ -10346,25 +10804,25 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B321" t="s">
+        <v>759</v>
+      </c>
+      <c r="C321" t="s">
         <v>760</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
+        <v>615</v>
+      </c>
+      <c r="E321" t="s">
         <v>761</v>
       </c>
-      <c r="D321" t="s">
-        <v>616</v>
-      </c>
-      <c r="E321" t="s">
+      <c r="F321" t="s">
         <v>762</v>
       </c>
-      <c r="F321" t="s">
+      <c r="G321" t="s">
         <v>763</v>
-      </c>
-      <c r="G321" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
@@ -10375,7 +10833,7 @@
         <v>8</v>
       </c>
       <c r="C322" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D322" t="s">
         <v>10</v>
@@ -10384,33 +10842,33 @@
         <v>11</v>
       </c>
       <c r="F322" t="s">
+        <v>764</v>
+      </c>
+      <c r="G322" t="s">
         <v>765</v>
-      </c>
-      <c r="G322" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>766</v>
+      </c>
+      <c r="B323" t="s">
         <v>767</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>768</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
+        <v>766</v>
+      </c>
+      <c r="E323" t="s">
         <v>769</v>
       </c>
-      <c r="D323" t="s">
-        <v>767</v>
-      </c>
-      <c r="E323" t="s">
+      <c r="F323" t="s">
+        <v>768</v>
+      </c>
+      <c r="G323" t="s">
         <v>770</v>
-      </c>
-      <c r="F323" t="s">
-        <v>769</v>
-      </c>
-      <c r="G323" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -10421,7 +10879,7 @@
         <v>8</v>
       </c>
       <c r="C324" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D324" t="s">
         <v>10</v>
@@ -10430,10 +10888,10 @@
         <v>11</v>
       </c>
       <c r="F324" t="s">
+        <v>771</v>
+      </c>
+      <c r="G324" t="s">
         <v>772</v>
-      </c>
-      <c r="G324" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
@@ -10444,7 +10902,7 @@
         <v>228</v>
       </c>
       <c r="C325" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D325" t="s">
         <v>10</v>
@@ -10453,10 +10911,10 @@
         <v>228</v>
       </c>
       <c r="F325" t="s">
+        <v>773</v>
+      </c>
+      <c r="G325" t="s">
         <v>774</v>
-      </c>
-      <c r="G325" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -10467,7 +10925,7 @@
         <v>228</v>
       </c>
       <c r="C326" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D326" t="s">
         <v>10</v>
@@ -10476,10 +10934,10 @@
         <v>228</v>
       </c>
       <c r="F326" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G326" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
@@ -10490,7 +10948,7 @@
         <v>147</v>
       </c>
       <c r="C327" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D327" t="s">
         <v>10</v>
@@ -10499,10 +10957,10 @@
         <v>147</v>
       </c>
       <c r="F327" t="s">
+        <v>776</v>
+      </c>
+      <c r="G327" t="s">
         <v>777</v>
-      </c>
-      <c r="G327" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
@@ -10513,7 +10971,7 @@
         <v>147</v>
       </c>
       <c r="C328" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D328" t="s">
         <v>10</v>
@@ -10522,10 +10980,10 @@
         <v>147</v>
       </c>
       <c r="F328" t="s">
+        <v>778</v>
+      </c>
+      <c r="G328" t="s">
         <v>779</v>
-      </c>
-      <c r="G328" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -10536,7 +10994,7 @@
         <v>188</v>
       </c>
       <c r="C329" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D329" t="s">
         <v>10</v>
@@ -10545,10 +11003,10 @@
         <v>188</v>
       </c>
       <c r="F329" t="s">
+        <v>780</v>
+      </c>
+      <c r="G329" t="s">
         <v>781</v>
-      </c>
-      <c r="G329" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -10559,7 +11017,7 @@
         <v>33</v>
       </c>
       <c r="C330" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D330" t="s">
         <v>17</v>
@@ -10568,21 +11026,33 @@
         <v>33</v>
       </c>
       <c r="F330" t="s">
+        <v>782</v>
+      </c>
+      <c r="G330" t="s">
         <v>783</v>
       </c>
-      <c r="G330" t="s">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C331" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C331" t="s">
+      <c r="D331" t="s">
+        <v>10</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F331" t="s">
+        <v>784</v>
+      </c>
+      <c r="G331" t="s">
         <v>785</v>
-      </c>
-      <c r="F331" t="s">
-        <v>785</v>
-      </c>
-      <c r="G331" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -10590,22 +11060,22 @@
         <v>15</v>
       </c>
       <c r="B332" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C332" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D332" t="s">
         <v>17</v>
       </c>
       <c r="E332" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F332" t="s">
+        <v>786</v>
+      </c>
+      <c r="G332" t="s">
         <v>787</v>
-      </c>
-      <c r="G332" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -10616,7 +11086,7 @@
         <v>33</v>
       </c>
       <c r="C333" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D333" t="s">
         <v>17</v>
@@ -10625,10 +11095,10 @@
         <v>33</v>
       </c>
       <c r="F333" t="s">
+        <v>788</v>
+      </c>
+      <c r="G333" t="s">
         <v>789</v>
-      </c>
-      <c r="G333" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
@@ -10639,7 +11109,7 @@
         <v>39</v>
       </c>
       <c r="C334" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D334" t="s">
         <v>10</v>
@@ -10648,10 +11118,10 @@
         <v>39</v>
       </c>
       <c r="F334" t="s">
+        <v>790</v>
+      </c>
+      <c r="G334" t="s">
         <v>791</v>
-      </c>
-      <c r="G334" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -10662,7 +11132,7 @@
         <v>8</v>
       </c>
       <c r="C335" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D335" t="s">
         <v>10</v>
@@ -10671,10 +11141,10 @@
         <v>11</v>
       </c>
       <c r="F335" t="s">
+        <v>792</v>
+      </c>
+      <c r="G335" t="s">
         <v>793</v>
-      </c>
-      <c r="G335" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
@@ -10685,7 +11155,7 @@
         <v>8</v>
       </c>
       <c r="C336" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D336" t="s">
         <v>10</v>
@@ -10694,10 +11164,10 @@
         <v>11</v>
       </c>
       <c r="F336" t="s">
+        <v>794</v>
+      </c>
+      <c r="G336" t="s">
         <v>795</v>
-      </c>
-      <c r="G336" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
@@ -10708,7 +11178,7 @@
         <v>27</v>
       </c>
       <c r="C337" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D337" t="s">
         <v>10</v>
@@ -10717,10 +11187,10 @@
         <v>27</v>
       </c>
       <c r="F337" t="s">
+        <v>796</v>
+      </c>
+      <c r="G337" t="s">
         <v>797</v>
-      </c>
-      <c r="G337" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
@@ -10731,7 +11201,7 @@
         <v>135</v>
       </c>
       <c r="C338" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D338" t="s">
         <v>17</v>
@@ -10740,10 +11210,10 @@
         <v>135</v>
       </c>
       <c r="F338" t="s">
+        <v>798</v>
+      </c>
+      <c r="G338" t="s">
         <v>799</v>
-      </c>
-      <c r="G338" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
@@ -10754,7 +11224,7 @@
         <v>27</v>
       </c>
       <c r="C339" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D339" t="s">
         <v>10</v>
@@ -10763,10 +11233,10 @@
         <v>27</v>
       </c>
       <c r="F339" t="s">
+        <v>800</v>
+      </c>
+      <c r="G339" t="s">
         <v>801</v>
-      </c>
-      <c r="G339" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
@@ -10777,7 +11247,7 @@
         <v>39</v>
       </c>
       <c r="C340" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D340" t="s">
         <v>10</v>
@@ -10786,10 +11256,10 @@
         <v>39</v>
       </c>
       <c r="F340" t="s">
+        <v>802</v>
+      </c>
+      <c r="G340" t="s">
         <v>803</v>
-      </c>
-      <c r="G340" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -10800,7 +11270,7 @@
         <v>27</v>
       </c>
       <c r="C341" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D341" t="s">
         <v>10</v>
@@ -10809,33 +11279,33 @@
         <v>27</v>
       </c>
       <c r="F341" t="s">
+        <v>804</v>
+      </c>
+      <c r="G341" t="s">
         <v>805</v>
-      </c>
-      <c r="G341" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>806</v>
+      </c>
+      <c r="B342" t="s">
         <v>807</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>808</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>809</v>
       </c>
-      <c r="D342" t="s">
+      <c r="E342" t="s">
+        <v>807</v>
+      </c>
+      <c r="F342" t="s">
+        <v>808</v>
+      </c>
+      <c r="G342" t="s">
         <v>810</v>
-      </c>
-      <c r="E342" t="s">
-        <v>808</v>
-      </c>
-      <c r="F342" t="s">
-        <v>809</v>
-      </c>
-      <c r="G342" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -10846,7 +11316,7 @@
         <v>8</v>
       </c>
       <c r="C343" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D343" t="s">
         <v>10</v>
@@ -10855,10 +11325,10 @@
         <v>11</v>
       </c>
       <c r="F343" t="s">
+        <v>811</v>
+      </c>
+      <c r="G343" t="s">
         <v>812</v>
-      </c>
-      <c r="G343" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
@@ -10869,7 +11339,7 @@
         <v>27</v>
       </c>
       <c r="C344" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D344" t="s">
         <v>10</v>
@@ -10878,10 +11348,10 @@
         <v>27</v>
       </c>
       <c r="F344" t="s">
+        <v>813</v>
+      </c>
+      <c r="G344" t="s">
         <v>814</v>
-      </c>
-      <c r="G344" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -10892,7 +11362,7 @@
         <v>27</v>
       </c>
       <c r="C345" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D345" t="s">
         <v>10</v>
@@ -10901,10 +11371,10 @@
         <v>27</v>
       </c>
       <c r="F345" t="s">
+        <v>815</v>
+      </c>
+      <c r="G345" t="s">
         <v>816</v>
-      </c>
-      <c r="G345" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
@@ -10915,7 +11385,7 @@
         <v>191</v>
       </c>
       <c r="C346" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D346" t="s">
         <v>17</v>
@@ -10924,10 +11394,10 @@
         <v>191</v>
       </c>
       <c r="F346" t="s">
+        <v>817</v>
+      </c>
+      <c r="G346" t="s">
         <v>818</v>
-      </c>
-      <c r="G346" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -10935,33 +11405,39 @@
         <v>15</v>
       </c>
       <c r="B347" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C347" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D347" t="s">
         <v>17</v>
       </c>
       <c r="E347" t="s">
+        <v>819</v>
+      </c>
+      <c r="F347" t="s">
+        <v>819</v>
+      </c>
+      <c r="G347" t="s">
         <v>820</v>
       </c>
-      <c r="F347" t="s">
-        <v>820</v>
-      </c>
-      <c r="G347" t="s">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>432</v>
+      </c>
+      <c r="C348" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C348" t="s">
+      <c r="D348" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F348" t="s">
+        <v>821</v>
+      </c>
+      <c r="G348" t="s">
         <v>822</v>
-      </c>
-      <c r="F348" t="s">
-        <v>822</v>
-      </c>
-      <c r="G348" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
@@ -10972,7 +11448,7 @@
         <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D349" t="s">
         <v>10</v>
@@ -10981,10 +11457,10 @@
         <v>11</v>
       </c>
       <c r="F349" t="s">
+        <v>823</v>
+      </c>
+      <c r="G349" t="s">
         <v>824</v>
-      </c>
-      <c r="G349" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
@@ -10995,7 +11471,7 @@
         <v>165</v>
       </c>
       <c r="C350" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D350" t="s">
         <v>17</v>
@@ -11004,10 +11480,10 @@
         <v>165</v>
       </c>
       <c r="F350" t="s">
+        <v>825</v>
+      </c>
+      <c r="G350" t="s">
         <v>826</v>
-      </c>
-      <c r="G350" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
@@ -11018,7 +11494,7 @@
         <v>33</v>
       </c>
       <c r="C351" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D351" t="s">
         <v>17</v>
@@ -11027,10 +11503,10 @@
         <v>33</v>
       </c>
       <c r="F351" t="s">
+        <v>827</v>
+      </c>
+      <c r="G351" t="s">
         <v>828</v>
-      </c>
-      <c r="G351" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -11041,7 +11517,7 @@
         <v>27</v>
       </c>
       <c r="C352" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D352" t="s">
         <v>10</v>
@@ -11050,21 +11526,21 @@
         <v>27</v>
       </c>
       <c r="F352" t="s">
+        <v>829</v>
+      </c>
+      <c r="G352" t="s">
         <v>830</v>
-      </c>
-      <c r="G352" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C353" t="s">
+        <v>831</v>
+      </c>
+      <c r="F353" t="s">
         <v>832</v>
       </c>
-      <c r="F353" t="s">
+      <c r="G353" t="s">
         <v>833</v>
-      </c>
-      <c r="G353" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -11075,7 +11551,7 @@
         <v>39</v>
       </c>
       <c r="C354" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D354" t="s">
         <v>10</v>
@@ -11084,10 +11560,10 @@
         <v>39</v>
       </c>
       <c r="F354" t="s">
+        <v>834</v>
+      </c>
+      <c r="G354" t="s">
         <v>835</v>
-      </c>
-      <c r="G354" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
@@ -11098,7 +11574,7 @@
         <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D355" t="s">
         <v>10</v>
@@ -11107,10 +11583,10 @@
         <v>11</v>
       </c>
       <c r="F355" t="s">
+        <v>836</v>
+      </c>
+      <c r="G355" t="s">
         <v>837</v>
-      </c>
-      <c r="G355" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
@@ -11121,7 +11597,7 @@
         <v>27</v>
       </c>
       <c r="C356" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D356" t="s">
         <v>10</v>
@@ -11130,10 +11606,10 @@
         <v>27</v>
       </c>
       <c r="F356" t="s">
+        <v>838</v>
+      </c>
+      <c r="G356" t="s">
         <v>839</v>
-      </c>
-      <c r="G356" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
@@ -11144,7 +11620,7 @@
         <v>27</v>
       </c>
       <c r="C357" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D357" t="s">
         <v>10</v>
@@ -11153,21 +11629,27 @@
         <v>27</v>
       </c>
       <c r="F357" t="s">
+        <v>840</v>
+      </c>
+      <c r="G357" t="s">
         <v>841</v>
       </c>
-      <c r="G357" t="s">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>432</v>
+      </c>
+      <c r="C358" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C358" t="s">
+      <c r="D358" t="s">
+        <v>432</v>
+      </c>
+      <c r="F358" t="s">
+        <v>842</v>
+      </c>
+      <c r="G358" t="s">
         <v>843</v>
-      </c>
-      <c r="F358" t="s">
-        <v>843</v>
-      </c>
-      <c r="G358" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
@@ -11178,7 +11660,7 @@
         <v>33</v>
       </c>
       <c r="C359" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D359" t="s">
         <v>17</v>
@@ -11187,10 +11669,10 @@
         <v>33</v>
       </c>
       <c r="F359" t="s">
+        <v>844</v>
+      </c>
+      <c r="G359" t="s">
         <v>845</v>
-      </c>
-      <c r="G359" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
@@ -11201,7 +11683,7 @@
         <v>8</v>
       </c>
       <c r="C360" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D360" t="s">
         <v>10</v>
@@ -11210,10 +11692,10 @@
         <v>11</v>
       </c>
       <c r="F360" t="s">
+        <v>846</v>
+      </c>
+      <c r="G360" t="s">
         <v>847</v>
-      </c>
-      <c r="G360" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
@@ -11224,7 +11706,7 @@
         <v>290</v>
       </c>
       <c r="C361" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D361" t="s">
         <v>17</v>
@@ -11233,10 +11715,10 @@
         <v>290</v>
       </c>
       <c r="F361" t="s">
+        <v>849</v>
+      </c>
+      <c r="G361" t="s">
         <v>850</v>
-      </c>
-      <c r="G361" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -11247,7 +11729,7 @@
         <v>27</v>
       </c>
       <c r="C362" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D362" t="s">
         <v>10</v>
@@ -11256,10 +11738,10 @@
         <v>27</v>
       </c>
       <c r="F362" t="s">
+        <v>851</v>
+      </c>
+      <c r="G362" t="s">
         <v>852</v>
-      </c>
-      <c r="G362" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
@@ -11270,7 +11752,7 @@
         <v>8</v>
       </c>
       <c r="C363" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D363" t="s">
         <v>10</v>
@@ -11279,10 +11761,10 @@
         <v>11</v>
       </c>
       <c r="F363" t="s">
+        <v>853</v>
+      </c>
+      <c r="G363" t="s">
         <v>854</v>
-      </c>
-      <c r="G363" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -11290,19 +11772,19 @@
         <v>15</v>
       </c>
       <c r="B364" t="s">
+        <v>855</v>
+      </c>
+      <c r="C364" t="s">
         <v>856</v>
-      </c>
-      <c r="C364" t="s">
-        <v>857</v>
       </c>
       <c r="D364" t="s">
         <v>17</v>
       </c>
       <c r="E364" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F364" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G364" t="s">
         <v>128</v>
@@ -11310,25 +11792,25 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>858</v>
+      </c>
+      <c r="B365" t="s">
         <v>859</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
+        <v>859</v>
+      </c>
+      <c r="D365" t="s">
+        <v>858</v>
+      </c>
+      <c r="E365" t="s">
+        <v>859</v>
+      </c>
+      <c r="F365" t="s">
+        <v>859</v>
+      </c>
+      <c r="G365" t="s">
         <v>860</v>
-      </c>
-      <c r="C365" t="s">
-        <v>860</v>
-      </c>
-      <c r="D365" t="s">
-        <v>859</v>
-      </c>
-      <c r="E365" t="s">
-        <v>860</v>
-      </c>
-      <c r="F365" t="s">
-        <v>860</v>
-      </c>
-      <c r="G365" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
@@ -11336,45 +11818,45 @@
         <v>15</v>
       </c>
       <c r="B366" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C366" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D366" t="s">
         <v>17</v>
       </c>
       <c r="E366" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F366" t="s">
+        <v>861</v>
+      </c>
+      <c r="G366" t="s">
         <v>862</v>
-      </c>
-      <c r="G366" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>863</v>
+      </c>
+      <c r="B367" t="s">
         <v>864</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>865</v>
       </c>
-      <c r="C367" t="s">
+      <c r="D367" t="s">
         <v>866</v>
       </c>
-      <c r="D367" t="s">
+      <c r="E367" t="s">
+        <v>864</v>
+      </c>
+      <c r="F367" t="s">
+        <v>865</v>
+      </c>
+      <c r="G367" t="s">
         <v>867</v>
-      </c>
-      <c r="E367" t="s">
-        <v>865</v>
-      </c>
-      <c r="F367" t="s">
-        <v>866</v>
-      </c>
-      <c r="G367" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
@@ -11385,7 +11867,7 @@
         <v>92</v>
       </c>
       <c r="C368" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D368" t="s">
         <v>10</v>
@@ -11394,10 +11876,10 @@
         <v>94</v>
       </c>
       <c r="F368" t="s">
+        <v>868</v>
+      </c>
+      <c r="G368" t="s">
         <v>869</v>
-      </c>
-      <c r="G368" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -11408,7 +11890,7 @@
         <v>221</v>
       </c>
       <c r="C369" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D369" t="s">
         <v>10</v>
@@ -11417,32 +11899,56 @@
         <v>221</v>
       </c>
       <c r="F369" t="s">
+        <v>870</v>
+      </c>
+      <c r="G369" t="s">
         <v>871</v>
       </c>
-      <c r="G369" t="s">
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" t="s">
+        <v>188</v>
+      </c>
+      <c r="C370" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C370" t="s">
+      <c r="D370" t="s">
+        <v>10</v>
+      </c>
+      <c r="E370" t="s">
+        <v>188</v>
+      </c>
+      <c r="F370" t="s">
+        <v>872</v>
+      </c>
+      <c r="G370" t="s">
         <v>873</v>
       </c>
-      <c r="F370" t="s">
-        <v>873</v>
-      </c>
-      <c r="G370" t="s">
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C371" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C371" t="s">
+      <c r="D371" t="s">
+        <v>10</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F371" t="s">
+        <v>874</v>
+      </c>
+      <c r="G371" t="s">
         <v>875</v>
-      </c>
-      <c r="F371" t="s">
-        <v>875</v>
-      </c>
-      <c r="G371" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
@@ -11453,7 +11959,7 @@
         <v>49</v>
       </c>
       <c r="C372" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D372" t="s">
         <v>10</v>
@@ -11462,10 +11968,10 @@
         <v>49</v>
       </c>
       <c r="F372" t="s">
+        <v>876</v>
+      </c>
+      <c r="G372" t="s">
         <v>877</v>
-      </c>
-      <c r="G372" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
@@ -11476,7 +11982,7 @@
         <v>8</v>
       </c>
       <c r="C373" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D373" t="s">
         <v>10</v>
@@ -11485,10 +11991,10 @@
         <v>11</v>
       </c>
       <c r="F373" t="s">
+        <v>878</v>
+      </c>
+      <c r="G373" t="s">
         <v>879</v>
-      </c>
-      <c r="G373" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
@@ -11496,42 +12002,42 @@
         <v>493</v>
       </c>
       <c r="B374" t="s">
+        <v>880</v>
+      </c>
+      <c r="C374" t="s">
         <v>881</v>
-      </c>
-      <c r="C374" t="s">
-        <v>882</v>
       </c>
       <c r="D374" t="s">
         <v>496</v>
       </c>
       <c r="E374" t="s">
+        <v>880</v>
+      </c>
+      <c r="F374" t="s">
         <v>881</v>
       </c>
-      <c r="F374" t="s">
+      <c r="G374" t="s">
         <v>882</v>
-      </c>
-      <c r="G374" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" t="s">
+        <v>39</v>
+      </c>
+      <c r="C375" t="s">
+        <v>885</v>
+      </c>
+      <c r="D375" t="s">
+        <v>39</v>
+      </c>
+      <c r="E375" t="s">
         <v>884</v>
       </c>
-      <c r="B375" t="s">
+      <c r="F375" t="s">
         <v>885</v>
-      </c>
-      <c r="C375" t="s">
-        <v>886</v>
-      </c>
-      <c r="D375" t="s">
-        <v>884</v>
-      </c>
-      <c r="E375" t="s">
-        <v>885</v>
-      </c>
-      <c r="F375" t="s">
-        <v>886</v>
       </c>
       <c r="G375" t="s">
         <v>298</v>
@@ -11545,7 +12051,7 @@
         <v>8</v>
       </c>
       <c r="C376" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D376" t="s">
         <v>10</v>
@@ -11554,10 +12060,10 @@
         <v>11</v>
       </c>
       <c r="F376" t="s">
+        <v>886</v>
+      </c>
+      <c r="G376" t="s">
         <v>887</v>
-      </c>
-      <c r="G376" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -11568,7 +12074,7 @@
         <v>334</v>
       </c>
       <c r="C377" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D377" t="s">
         <v>17</v>
@@ -11577,21 +12083,27 @@
         <v>334</v>
       </c>
       <c r="F377" t="s">
+        <v>888</v>
+      </c>
+      <c r="G377" t="s">
         <v>889</v>
       </c>
-      <c r="G377" t="s">
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>432</v>
+      </c>
+      <c r="C378" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C378" t="s">
+      <c r="D378" t="s">
+        <v>432</v>
+      </c>
+      <c r="F378" t="s">
+        <v>890</v>
+      </c>
+      <c r="G378" t="s">
         <v>891</v>
-      </c>
-      <c r="F378" t="s">
-        <v>891</v>
-      </c>
-      <c r="G378" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
@@ -11602,7 +12114,7 @@
         <v>62</v>
       </c>
       <c r="C379" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D379" t="s">
         <v>10</v>
@@ -11611,10 +12123,10 @@
         <v>62</v>
       </c>
       <c r="F379" t="s">
+        <v>892</v>
+      </c>
+      <c r="G379" t="s">
         <v>893</v>
-      </c>
-      <c r="G379" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
@@ -11625,7 +12137,7 @@
         <v>8</v>
       </c>
       <c r="C380" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D380" t="s">
         <v>10</v>
@@ -11634,10 +12146,10 @@
         <v>11</v>
       </c>
       <c r="F380" t="s">
+        <v>894</v>
+      </c>
+      <c r="G380" t="s">
         <v>895</v>
-      </c>
-      <c r="G380" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -11648,7 +12160,7 @@
         <v>39</v>
       </c>
       <c r="C381" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D381" t="s">
         <v>10</v>
@@ -11657,10 +12169,10 @@
         <v>39</v>
       </c>
       <c r="F381" t="s">
+        <v>896</v>
+      </c>
+      <c r="G381" t="s">
         <v>897</v>
-      </c>
-      <c r="G381" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
@@ -11671,7 +12183,7 @@
         <v>510</v>
       </c>
       <c r="C382" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D382" t="s">
         <v>10</v>
@@ -11680,10 +12192,10 @@
         <v>510</v>
       </c>
       <c r="F382" t="s">
+        <v>898</v>
+      </c>
+      <c r="G382" t="s">
         <v>899</v>
-      </c>
-      <c r="G382" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
@@ -11694,7 +12206,7 @@
         <v>104</v>
       </c>
       <c r="C383" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D383" t="s">
         <v>10</v>
@@ -11703,10 +12215,10 @@
         <v>104</v>
       </c>
       <c r="F383" t="s">
+        <v>900</v>
+      </c>
+      <c r="G383" t="s">
         <v>901</v>
-      </c>
-      <c r="G383" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
@@ -11717,7 +12229,7 @@
         <v>147</v>
       </c>
       <c r="C384" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D384" t="s">
         <v>10</v>
@@ -11726,21 +12238,33 @@
         <v>147</v>
       </c>
       <c r="F384" t="s">
+        <v>902</v>
+      </c>
+      <c r="G384" t="s">
         <v>903</v>
       </c>
-      <c r="G384" t="s">
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>7</v>
+      </c>
+      <c r="B385" t="s">
+        <v>525</v>
+      </c>
+      <c r="C385" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C385" t="s">
+      <c r="D385" t="s">
+        <v>10</v>
+      </c>
+      <c r="E385" t="s">
+        <v>525</v>
+      </c>
+      <c r="F385" t="s">
+        <v>904</v>
+      </c>
+      <c r="G385" t="s">
         <v>905</v>
-      </c>
-      <c r="F385" t="s">
-        <v>905</v>
-      </c>
-      <c r="G385" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
@@ -11748,22 +12272,22 @@
         <v>7</v>
       </c>
       <c r="B386" t="s">
+        <v>906</v>
+      </c>
+      <c r="C386" t="s">
         <v>907</v>
       </c>
-      <c r="C386" t="s">
+      <c r="D386" t="s">
+        <v>10</v>
+      </c>
+      <c r="E386" t="s">
+        <v>906</v>
+      </c>
+      <c r="F386" t="s">
+        <v>907</v>
+      </c>
+      <c r="G386" t="s">
         <v>908</v>
-      </c>
-      <c r="D386" t="s">
-        <v>10</v>
-      </c>
-      <c r="E386" t="s">
-        <v>907</v>
-      </c>
-      <c r="F386" t="s">
-        <v>908</v>
-      </c>
-      <c r="G386" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
@@ -11774,7 +12298,7 @@
         <v>142</v>
       </c>
       <c r="C387" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D387" t="s">
         <v>10</v>
@@ -11783,21 +12307,33 @@
         <v>142</v>
       </c>
       <c r="F387" t="s">
+        <v>909</v>
+      </c>
+      <c r="G387" t="s">
         <v>910</v>
       </c>
-      <c r="G387" t="s">
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388" t="s">
+        <v>525</v>
+      </c>
+      <c r="C388" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C388" t="s">
+      <c r="D388" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388" t="s">
+        <v>525</v>
+      </c>
+      <c r="F388" t="s">
+        <v>911</v>
+      </c>
+      <c r="G388" t="s">
         <v>912</v>
-      </c>
-      <c r="F388" t="s">
-        <v>912</v>
-      </c>
-      <c r="G388" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -11808,7 +12344,7 @@
         <v>27</v>
       </c>
       <c r="C389" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D389" t="s">
         <v>10</v>
@@ -11817,10 +12353,10 @@
         <v>27</v>
       </c>
       <c r="F389" t="s">
+        <v>913</v>
+      </c>
+      <c r="G389" t="s">
         <v>914</v>
-      </c>
-      <c r="G389" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
@@ -11831,7 +12367,7 @@
         <v>39</v>
       </c>
       <c r="C390" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D390" t="s">
         <v>10</v>
@@ -11840,10 +12376,10 @@
         <v>39</v>
       </c>
       <c r="F390" t="s">
+        <v>915</v>
+      </c>
+      <c r="G390" t="s">
         <v>916</v>
-      </c>
-      <c r="G390" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -11854,7 +12390,7 @@
         <v>233</v>
       </c>
       <c r="C391" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D391" t="s">
         <v>10</v>
@@ -11863,33 +12399,33 @@
         <v>233</v>
       </c>
       <c r="F391" t="s">
+        <v>917</v>
+      </c>
+      <c r="G391" t="s">
         <v>918</v>
-      </c>
-      <c r="G391" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
+        <v>919</v>
+      </c>
+      <c r="B392" t="s">
         <v>920</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C392" t="s">
         <v>921</v>
       </c>
-      <c r="C392" t="s">
+      <c r="D392" t="s">
+        <v>919</v>
+      </c>
+      <c r="E392" t="s">
         <v>922</v>
       </c>
-      <c r="D392" t="s">
-        <v>920</v>
-      </c>
-      <c r="E392" t="s">
+      <c r="F392" t="s">
         <v>923</v>
       </c>
-      <c r="F392" t="s">
+      <c r="G392" t="s">
         <v>924</v>
-      </c>
-      <c r="G392" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -11900,7 +12436,7 @@
         <v>221</v>
       </c>
       <c r="C393" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D393" t="s">
         <v>10</v>
@@ -11909,10 +12445,10 @@
         <v>221</v>
       </c>
       <c r="F393" t="s">
+        <v>925</v>
+      </c>
+      <c r="G393" t="s">
         <v>926</v>
-      </c>
-      <c r="G393" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
@@ -11923,7 +12459,7 @@
         <v>206</v>
       </c>
       <c r="C394" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D394" t="s">
         <v>10</v>
@@ -11932,10 +12468,10 @@
         <v>206</v>
       </c>
       <c r="F394" t="s">
+        <v>927</v>
+      </c>
+      <c r="G394" t="s">
         <v>928</v>
-      </c>
-      <c r="G394" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -11946,7 +12482,7 @@
         <v>8</v>
       </c>
       <c r="C395" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D395" t="s">
         <v>10</v>
@@ -11955,10 +12491,10 @@
         <v>11</v>
       </c>
       <c r="F395" t="s">
+        <v>929</v>
+      </c>
+      <c r="G395" t="s">
         <v>930</v>
-      </c>
-      <c r="G395" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -11969,7 +12505,7 @@
         <v>8</v>
       </c>
       <c r="C396" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D396" t="s">
         <v>10</v>
@@ -11978,33 +12514,33 @@
         <v>11</v>
       </c>
       <c r="F396" t="s">
+        <v>931</v>
+      </c>
+      <c r="G396" t="s">
         <v>932</v>
-      </c>
-      <c r="G396" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
+        <v>597</v>
+      </c>
+      <c r="B397" t="s">
         <v>598</v>
       </c>
-      <c r="B397" t="s">
-        <v>599</v>
-      </c>
       <c r="C397" t="s">
+        <v>933</v>
+      </c>
+      <c r="D397" t="s">
+        <v>597</v>
+      </c>
+      <c r="E397" t="s">
+        <v>598</v>
+      </c>
+      <c r="F397" t="s">
+        <v>933</v>
+      </c>
+      <c r="G397" t="s">
         <v>934</v>
-      </c>
-      <c r="D397" t="s">
-        <v>598</v>
-      </c>
-      <c r="E397" t="s">
-        <v>599</v>
-      </c>
-      <c r="F397" t="s">
-        <v>934</v>
-      </c>
-      <c r="G397" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
@@ -12015,7 +12551,7 @@
         <v>191</v>
       </c>
       <c r="C398" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D398" t="s">
         <v>17</v>
@@ -12024,10 +12560,10 @@
         <v>191</v>
       </c>
       <c r="F398" t="s">
+        <v>935</v>
+      </c>
+      <c r="G398" t="s">
         <v>936</v>
-      </c>
-      <c r="G398" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -12038,7 +12574,7 @@
         <v>49</v>
       </c>
       <c r="C399" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D399" t="s">
         <v>10</v>
@@ -12047,10 +12583,10 @@
         <v>49</v>
       </c>
       <c r="F399" t="s">
+        <v>937</v>
+      </c>
+      <c r="G399" t="s">
         <v>938</v>
-      </c>
-      <c r="G399" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
@@ -12061,7 +12597,7 @@
         <v>39</v>
       </c>
       <c r="C400" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D400" t="s">
         <v>10</v>
@@ -12070,10 +12606,10 @@
         <v>39</v>
       </c>
       <c r="F400" t="s">
+        <v>939</v>
+      </c>
+      <c r="G400" t="s">
         <v>940</v>
-      </c>
-      <c r="G400" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -12084,7 +12620,7 @@
         <v>39</v>
       </c>
       <c r="C401" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D401" t="s">
         <v>10</v>
@@ -12093,10 +12629,10 @@
         <v>39</v>
       </c>
       <c r="F401" t="s">
+        <v>941</v>
+      </c>
+      <c r="G401" t="s">
         <v>942</v>
-      </c>
-      <c r="G401" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
@@ -12104,33 +12640,45 @@
         <v>15</v>
       </c>
       <c r="B402" t="s">
+        <v>943</v>
+      </c>
+      <c r="C402" t="s">
         <v>944</v>
-      </c>
-      <c r="C402" t="s">
-        <v>945</v>
       </c>
       <c r="D402" t="s">
         <v>17</v>
       </c>
       <c r="E402" t="s">
+        <v>943</v>
+      </c>
+      <c r="F402" t="s">
         <v>944</v>
       </c>
-      <c r="F402" t="s">
+      <c r="G402" t="s">
         <v>945</v>
       </c>
-      <c r="G402" t="s">
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403" t="s">
+        <v>525</v>
+      </c>
+      <c r="C403" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C403" t="s">
+      <c r="D403" t="s">
+        <v>10</v>
+      </c>
+      <c r="E403" t="s">
+        <v>525</v>
+      </c>
+      <c r="F403" t="s">
+        <v>946</v>
+      </c>
+      <c r="G403" t="s">
         <v>947</v>
-      </c>
-      <c r="F403" t="s">
-        <v>947</v>
-      </c>
-      <c r="G403" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
@@ -12138,22 +12686,22 @@
         <v>15</v>
       </c>
       <c r="B404" t="s">
+        <v>948</v>
+      </c>
+      <c r="C404" t="s">
         <v>949</v>
-      </c>
-      <c r="C404" t="s">
-        <v>950</v>
       </c>
       <c r="D404" t="s">
         <v>17</v>
       </c>
       <c r="E404" t="s">
+        <v>950</v>
+      </c>
+      <c r="F404" t="s">
+        <v>949</v>
+      </c>
+      <c r="G404" t="s">
         <v>951</v>
-      </c>
-      <c r="F404" t="s">
-        <v>950</v>
-      </c>
-      <c r="G404" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
@@ -12164,7 +12712,7 @@
         <v>8</v>
       </c>
       <c r="C405" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D405" t="s">
         <v>10</v>
@@ -12173,10 +12721,10 @@
         <v>11</v>
       </c>
       <c r="F405" t="s">
+        <v>952</v>
+      </c>
+      <c r="G405" t="s">
         <v>953</v>
-      </c>
-      <c r="G405" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
@@ -12184,22 +12732,22 @@
         <v>15</v>
       </c>
       <c r="B406" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C406" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D406" t="s">
         <v>17</v>
       </c>
       <c r="E406" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F406" t="s">
+        <v>954</v>
+      </c>
+      <c r="G406" t="s">
         <v>955</v>
-      </c>
-      <c r="G406" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -12210,7 +12758,7 @@
         <v>92</v>
       </c>
       <c r="C407" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D407" t="s">
         <v>10</v>
@@ -12219,10 +12767,10 @@
         <v>94</v>
       </c>
       <c r="F407" t="s">
+        <v>956</v>
+      </c>
+      <c r="G407" t="s">
         <v>957</v>
-      </c>
-      <c r="G407" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -12233,7 +12781,7 @@
         <v>8</v>
       </c>
       <c r="C408" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D408" t="s">
         <v>10</v>
@@ -12242,7 +12790,7 @@
         <v>11</v>
       </c>
       <c r="F408" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G408" t="s">
         <v>405</v>
@@ -12256,7 +12804,7 @@
         <v>49</v>
       </c>
       <c r="C409" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D409" t="s">
         <v>10</v>
@@ -12265,10 +12813,10 @@
         <v>49</v>
       </c>
       <c r="F409" t="s">
+        <v>959</v>
+      </c>
+      <c r="G409" t="s">
         <v>960</v>
-      </c>
-      <c r="G409" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
@@ -12279,7 +12827,7 @@
         <v>8</v>
       </c>
       <c r="C410" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D410" t="s">
         <v>10</v>
@@ -12288,10 +12836,10 @@
         <v>11</v>
       </c>
       <c r="F410" t="s">
+        <v>961</v>
+      </c>
+      <c r="G410" t="s">
         <v>962</v>
-      </c>
-      <c r="G410" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -12302,7 +12850,7 @@
         <v>135</v>
       </c>
       <c r="C411" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D411" t="s">
         <v>17</v>
@@ -12311,10 +12859,10 @@
         <v>135</v>
       </c>
       <c r="F411" t="s">
+        <v>963</v>
+      </c>
+      <c r="G411" t="s">
         <v>964</v>
-      </c>
-      <c r="G411" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
@@ -12325,7 +12873,7 @@
         <v>33</v>
       </c>
       <c r="C412" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D412" t="s">
         <v>17</v>
@@ -12334,10 +12882,10 @@
         <v>33</v>
       </c>
       <c r="F412" t="s">
+        <v>965</v>
+      </c>
+      <c r="G412" t="s">
         <v>966</v>
-      </c>
-      <c r="G412" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
@@ -12345,22 +12893,22 @@
         <v>121</v>
       </c>
       <c r="B413" t="s">
+        <v>967</v>
+      </c>
+      <c r="C413" t="s">
         <v>968</v>
-      </c>
-      <c r="C413" t="s">
-        <v>969</v>
       </c>
       <c r="D413" t="s">
         <v>124</v>
       </c>
       <c r="E413" t="s">
+        <v>967</v>
+      </c>
+      <c r="F413" t="s">
         <v>968</v>
       </c>
-      <c r="F413" t="s">
+      <c r="G413" t="s">
         <v>969</v>
-      </c>
-      <c r="G413" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
@@ -12371,7 +12919,7 @@
         <v>27</v>
       </c>
       <c r="C414" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D414" t="s">
         <v>10</v>
@@ -12380,21 +12928,27 @@
         <v>27</v>
       </c>
       <c r="F414" t="s">
+        <v>970</v>
+      </c>
+      <c r="G414" t="s">
         <v>971</v>
       </c>
-      <c r="G414" t="s">
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>612</v>
+      </c>
+      <c r="C415" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C415" t="s">
+      <c r="D415" t="s">
+        <v>615</v>
+      </c>
+      <c r="F415" t="s">
         <v>973</v>
       </c>
-      <c r="F415" t="s">
+      <c r="G415" t="s">
         <v>974</v>
-      </c>
-      <c r="G415" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
@@ -12405,7 +12959,7 @@
         <v>27</v>
       </c>
       <c r="C416" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D416" t="s">
         <v>10</v>
@@ -12414,33 +12968,33 @@
         <v>27</v>
       </c>
       <c r="F416" t="s">
+        <v>975</v>
+      </c>
+      <c r="G416" t="s">
         <v>976</v>
-      </c>
-      <c r="G416" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B417" t="s">
+        <v>977</v>
+      </c>
+      <c r="C417" t="s">
         <v>978</v>
       </c>
-      <c r="C417" t="s">
+      <c r="D417" t="s">
+        <v>615</v>
+      </c>
+      <c r="E417" t="s">
         <v>979</v>
       </c>
-      <c r="D417" t="s">
-        <v>616</v>
-      </c>
-      <c r="E417" t="s">
+      <c r="F417" t="s">
         <v>980</v>
       </c>
-      <c r="F417" t="s">
+      <c r="G417" t="s">
         <v>981</v>
-      </c>
-      <c r="G417" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
@@ -12451,7 +13005,7 @@
         <v>27</v>
       </c>
       <c r="C418" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D418" t="s">
         <v>10</v>
@@ -12460,10 +13014,10 @@
         <v>27</v>
       </c>
       <c r="F418" t="s">
+        <v>982</v>
+      </c>
+      <c r="G418" t="s">
         <v>983</v>
-      </c>
-      <c r="G418" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
@@ -12471,22 +13025,22 @@
         <v>15</v>
       </c>
       <c r="B419" t="s">
+        <v>984</v>
+      </c>
+      <c r="C419" t="s">
         <v>985</v>
-      </c>
-      <c r="C419" t="s">
-        <v>986</v>
       </c>
       <c r="D419" t="s">
         <v>17</v>
       </c>
       <c r="E419" t="s">
+        <v>984</v>
+      </c>
+      <c r="F419" t="s">
         <v>985</v>
       </c>
-      <c r="F419" t="s">
+      <c r="G419" t="s">
         <v>986</v>
-      </c>
-      <c r="G419" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
@@ -12497,7 +13051,7 @@
         <v>39</v>
       </c>
       <c r="C420" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D420" t="s">
         <v>10</v>
@@ -12506,10 +13060,10 @@
         <v>39</v>
       </c>
       <c r="F420" t="s">
+        <v>987</v>
+      </c>
+      <c r="G420" t="s">
         <v>988</v>
-      </c>
-      <c r="G420" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
@@ -12517,22 +13071,22 @@
         <v>15</v>
       </c>
       <c r="B421" t="s">
+        <v>989</v>
+      </c>
+      <c r="C421" t="s">
         <v>990</v>
-      </c>
-      <c r="C421" t="s">
-        <v>991</v>
       </c>
       <c r="D421" t="s">
         <v>17</v>
       </c>
       <c r="E421" t="s">
+        <v>989</v>
+      </c>
+      <c r="F421" t="s">
         <v>990</v>
       </c>
-      <c r="F421" t="s">
+      <c r="G421" t="s">
         <v>991</v>
-      </c>
-      <c r="G421" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
@@ -12543,7 +13097,7 @@
         <v>30</v>
       </c>
       <c r="C422" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D422" t="s">
         <v>10</v>
@@ -12552,10 +13106,10 @@
         <v>30</v>
       </c>
       <c r="F422" t="s">
+        <v>992</v>
+      </c>
+      <c r="G422" t="s">
         <v>993</v>
-      </c>
-      <c r="G422" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
@@ -12566,7 +13120,7 @@
         <v>39</v>
       </c>
       <c r="C423" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D423" t="s">
         <v>10</v>
@@ -12575,10 +13129,10 @@
         <v>39</v>
       </c>
       <c r="F423" t="s">
+        <v>994</v>
+      </c>
+      <c r="G423" t="s">
         <v>995</v>
-      </c>
-      <c r="G423" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
@@ -12586,33 +13140,45 @@
         <v>7</v>
       </c>
       <c r="B424" t="s">
+        <v>996</v>
+      </c>
+      <c r="C424" t="s">
         <v>997</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424" t="s">
+        <v>10</v>
+      </c>
+      <c r="E424" t="s">
         <v>998</v>
       </c>
-      <c r="D424" t="s">
-        <v>10</v>
-      </c>
-      <c r="E424" t="s">
+      <c r="F424" t="s">
+        <v>997</v>
+      </c>
+      <c r="G424" t="s">
         <v>999</v>
       </c>
-      <c r="F424" t="s">
-        <v>998</v>
-      </c>
-      <c r="G424" t="s">
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>7</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C425" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C425" t="s">
+      <c r="D425" t="s">
+        <v>10</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G425" t="s">
         <v>1001</v>
-      </c>
-      <c r="F425" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G425" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
@@ -12623,7 +13189,7 @@
         <v>49</v>
       </c>
       <c r="C426" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D426" t="s">
         <v>10</v>
@@ -12632,90 +13198,102 @@
         <v>49</v>
       </c>
       <c r="F426" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G426" t="s">
         <v>1003</v>
       </c>
-      <c r="G426" t="s">
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C427" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C427" t="s">
+      <c r="D427" t="s">
+        <v>10</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G427" t="s">
         <v>1005</v>
-      </c>
-      <c r="F427" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G427" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B428" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C428" t="s">
         <v>1007</v>
       </c>
-      <c r="C428" t="s">
+      <c r="D428" t="s">
+        <v>866</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G428" t="s">
         <v>1008</v>
-      </c>
-      <c r="D428" t="s">
-        <v>867</v>
-      </c>
-      <c r="E428" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F428" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G428" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>883</v>
+      </c>
+      <c r="B429" t="s">
         <v>884</v>
       </c>
-      <c r="B429" t="s">
-        <v>885</v>
-      </c>
       <c r="C429" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D429" t="s">
+        <v>883</v>
+      </c>
+      <c r="E429" t="s">
+        <v>884</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G429" t="s">
         <v>1010</v>
-      </c>
-      <c r="D429" t="s">
-        <v>884</v>
-      </c>
-      <c r="E429" t="s">
-        <v>885</v>
-      </c>
-      <c r="F429" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
+        <v>883</v>
+      </c>
+      <c r="B430" t="s">
         <v>884</v>
       </c>
-      <c r="B430" t="s">
-        <v>885</v>
-      </c>
       <c r="C430" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D430" t="s">
+        <v>883</v>
+      </c>
+      <c r="E430" t="s">
+        <v>884</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G430" t="s">
         <v>1012</v>
-      </c>
-      <c r="D430" t="s">
-        <v>884</v>
-      </c>
-      <c r="E430" t="s">
-        <v>885</v>
-      </c>
-      <c r="F430" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G430" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
@@ -12738,7 +13316,7 @@
         <v>334</v>
       </c>
       <c r="G431" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
@@ -12749,7 +13327,7 @@
         <v>15</v>
       </c>
       <c r="C432" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D432" t="s">
         <v>17</v>
@@ -12758,7 +13336,7 @@
         <v>17</v>
       </c>
       <c r="F432" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G432" t="s">
         <v>218</v>
@@ -12772,7 +13350,7 @@
         <v>456</v>
       </c>
       <c r="C433" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D433" t="s">
         <v>17</v>
@@ -12781,10 +13359,10 @@
         <v>456</v>
       </c>
       <c r="F433" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G433" t="s">
         <v>1016</v>
-      </c>
-      <c r="G433" t="s">
-        <v>1017</v>
       </c>
     </row>
   </sheetData>

--- a/Maybeee.xlsx
+++ b/Maybeee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/MetadataProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C58EC-5583-424B-8BCE-4F97601BCF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B365C6-97E2-46EA-AE67-DF4387D6DC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="735" windowWidth="26850" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1035">
   <si>
     <t>ES_Country</t>
   </si>
@@ -3490,13 +3490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D375" sqref="D375"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4364,10 +4364,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>179</v>
+      </c>
       <c r="C39" t="s">
         <v>107</v>
       </c>
+      <c r="D39" t="s">
+        <v>182</v>
+      </c>
       <c r="F39" t="s">
         <v>107</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>469</v>
       </c>
@@ -4392,7 +4398,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -4530,7 +4536,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -4875,7 +4881,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4898,7 +4904,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +4950,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -4967,7 +4973,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -5059,7 +5065,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5203,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -5335,7 +5341,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5364,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -5381,7 +5387,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -5427,7 +5433,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5496,7 +5502,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5525,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5571,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5611,7 +5617,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>432</v>
       </c>
@@ -5720,7 +5726,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -5812,7 +5818,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -5835,7 +5841,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5950,7 +5956,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>179</v>
       </c>
@@ -6019,7 +6025,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -6042,7 +6048,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -6203,7 +6209,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -6249,7 +6255,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -6272,7 +6278,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -6318,7 +6324,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6341,7 +6347,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6364,7 +6370,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6456,7 +6462,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6479,7 +6485,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6525,7 +6531,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6548,7 +6554,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6640,7 +6646,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -6663,7 +6669,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6709,7 +6715,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -6732,7 +6738,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -6778,7 +6784,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -6847,7 +6853,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -6893,7 +6899,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -6916,7 +6922,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -6939,7 +6945,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>432</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -7048,7 +7054,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -7094,7 +7100,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -7140,7 +7146,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -7163,7 +7169,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -7186,7 +7192,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -7209,7 +7215,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -7278,7 +7284,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -7390,7 +7396,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -7459,7 +7465,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -7482,7 +7488,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>418</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>427</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>432</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7643,7 +7649,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -7666,7 +7672,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7781,7 +7787,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7804,7 +7810,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7965,7 +7971,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -7988,7 +7994,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>469</v>
       </c>
@@ -8011,7 +8017,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -8034,7 +8040,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -8123,7 +8129,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -8169,7 +8175,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -8238,7 +8244,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>493</v>
       </c>
@@ -8261,7 +8267,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>493</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -8324,7 +8330,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -8347,7 +8353,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -8393,7 +8399,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8416,7 +8422,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8462,7 +8468,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8485,7 +8491,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8531,7 +8537,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -8554,7 +8560,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -8571,7 +8577,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8617,7 +8623,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>493</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -8663,7 +8669,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -8686,7 +8692,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -8709,7 +8715,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>121</v>
       </c>
@@ -8755,7 +8761,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -8778,7 +8784,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -8801,7 +8807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -8824,7 +8830,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -8847,7 +8853,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -8870,7 +8876,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -8893,7 +8899,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -8916,7 +8922,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -8939,7 +8945,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -8962,7 +8968,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -8985,7 +8991,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -9008,7 +9014,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -9031,7 +9037,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -9054,7 +9060,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -9100,7 +9106,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>121</v>
       </c>
@@ -9123,7 +9129,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>586</v>
       </c>
@@ -9146,7 +9152,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -9192,7 +9198,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -9215,7 +9221,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>597</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -9284,7 +9290,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>605</v>
       </c>
@@ -9307,7 +9313,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -9330,7 +9336,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>612</v>
       </c>
@@ -9353,7 +9359,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -9376,7 +9382,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -9399,7 +9405,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -9445,7 +9451,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>586</v>
       </c>
@@ -9468,7 +9474,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>121</v>
       </c>
@@ -9491,7 +9497,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -9514,7 +9520,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -9537,7 +9543,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -9560,7 +9566,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -9583,7 +9589,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>493</v>
       </c>
@@ -9606,7 +9612,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -9629,7 +9635,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -9652,7 +9658,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -9675,7 +9681,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -9698,7 +9704,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -9721,7 +9727,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -9744,7 +9750,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -9767,7 +9773,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -9790,7 +9796,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -9813,7 +9819,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -9836,7 +9842,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -9859,7 +9865,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -9882,7 +9888,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -9905,7 +9911,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -9951,7 +9957,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>121</v>
       </c>
@@ -9974,7 +9980,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -9997,7 +10003,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -10020,7 +10026,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -10043,7 +10049,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -10066,7 +10072,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -10089,7 +10095,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -10112,7 +10118,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -10135,7 +10141,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -10158,7 +10164,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -10181,7 +10187,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -10204,7 +10210,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -10227,7 +10233,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -10250,7 +10256,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -10273,7 +10279,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -10296,7 +10302,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -10319,7 +10325,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -10365,7 +10371,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -10388,7 +10394,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -10434,7 +10440,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -10457,7 +10463,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -10480,7 +10486,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -10526,7 +10532,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>586</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>738</v>
       </c>
@@ -10618,7 +10624,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -10664,7 +10670,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -10687,7 +10693,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -10710,7 +10716,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -10733,7 +10739,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -10756,7 +10762,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -10779,7 +10785,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -10802,7 +10808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>612</v>
       </c>
@@ -10825,7 +10831,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -10848,7 +10854,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>766</v>
       </c>
@@ -10871,7 +10877,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -10894,7 +10900,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -10917,7 +10923,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -10940,7 +10946,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -10963,7 +10969,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -10986,7 +10992,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -11009,7 +11015,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -11032,7 +11038,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -11055,7 +11061,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -11078,7 +11084,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -11101,7 +11107,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -11124,7 +11130,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -11147,7 +11153,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -11170,7 +11176,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -11216,7 +11222,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -11239,7 +11245,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -11262,7 +11268,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -11285,7 +11291,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>806</v>
       </c>
@@ -11308,7 +11314,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -11331,7 +11337,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -11354,7 +11360,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -11377,7 +11383,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>15</v>
       </c>
@@ -11400,7 +11406,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>15</v>
       </c>
@@ -11423,7 +11429,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>432</v>
       </c>
@@ -11440,7 +11446,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -11463,7 +11469,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>15</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -11509,7 +11515,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -11532,7 +11538,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>831</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -11566,7 +11572,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -11589,7 +11595,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -11612,7 +11618,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -11635,7 +11641,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>432</v>
       </c>
@@ -11652,7 +11658,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -11675,7 +11681,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -11698,7 +11704,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>15</v>
       </c>
@@ -11721,7 +11727,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -11744,7 +11750,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>15</v>
       </c>
@@ -11790,7 +11796,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>858</v>
       </c>
@@ -11813,7 +11819,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>15</v>
       </c>
@@ -11836,7 +11842,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>863</v>
       </c>
@@ -11859,7 +11865,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -11882,7 +11888,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -11905,7 +11911,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -11928,7 +11934,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -11951,7 +11957,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -11974,7 +11980,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -11997,7 +12003,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>493</v>
       </c>
@@ -12020,7 +12026,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -12043,7 +12049,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>7</v>
       </c>
@@ -12066,7 +12072,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>15</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>432</v>
       </c>
@@ -12106,7 +12112,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -12129,7 +12135,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -12152,7 +12158,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>7</v>
       </c>
@@ -12175,7 +12181,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -12198,7 +12204,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -12221,7 +12227,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -12244,7 +12250,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -12267,7 +12273,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -12290,7 +12296,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -12336,7 +12342,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -12359,7 +12365,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -12382,7 +12388,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -12405,7 +12411,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>919</v>
       </c>
@@ -12428,7 +12434,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -12451,7 +12457,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -12474,7 +12480,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -12497,7 +12503,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -12520,7 +12526,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>597</v>
       </c>
@@ -12543,7 +12549,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>15</v>
       </c>
@@ -12566,7 +12572,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -12589,7 +12595,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>15</v>
       </c>
@@ -12658,7 +12664,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -12681,7 +12687,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -12704,7 +12710,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -12727,7 +12733,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>15</v>
       </c>
@@ -12750,7 +12756,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -12773,7 +12779,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -12796,7 +12802,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -12819,7 +12825,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -12842,7 +12848,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>15</v>
       </c>
@@ -12865,7 +12871,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>15</v>
       </c>
@@ -12888,7 +12894,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>121</v>
       </c>
@@ -12911,7 +12917,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -12934,7 +12940,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>612</v>
       </c>
@@ -12951,7 +12957,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -12974,7 +12980,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>612</v>
       </c>
@@ -12997,7 +13003,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -13020,7 +13026,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>15</v>
       </c>
@@ -13043,7 +13049,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -13066,7 +13072,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>15</v>
       </c>
@@ -13089,7 +13095,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -13112,7 +13118,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -13135,7 +13141,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -13158,7 +13164,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -13181,7 +13187,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -13204,7 +13210,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -13227,7 +13233,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>866</v>
       </c>
@@ -13250,7 +13256,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>883</v>
       </c>
@@ -13273,7 +13279,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>883</v>
       </c>
@@ -13296,7 +13302,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>15</v>
       </c>
@@ -13319,7 +13325,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>15</v>
       </c>
@@ -13342,7 +13348,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>15</v>
       </c>

--- a/Maybeee.xlsx
+++ b/Maybeee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B365C6-97E2-46EA-AE67-DF4387D6DC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9365F43-ECAD-4524-B9B3-50D53C9B1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="735" windowWidth="26850" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3490,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10238,7 +10238,7 @@
         <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C296" t="s">
         <v>701</v>
@@ -10353,7 +10353,7 @@
         <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C301" t="s">
         <v>713</v>
